--- a/datasets/dataset.xlsx
+++ b/datasets/dataset.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -940,7 +938,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -948,7 +946,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1001,14 +999,14 @@
     <tableColumn id="9" name="CPEscSec"/>
     <tableColumn id="10" name="CiudadEscSec" dataDxfId="2"/>
     <tableColumn id="11" name="CPAlu"/>
-    <tableColumn id="12" name="CiudadAlu" dataDxfId="0"/>
+    <tableColumn id="12" name="CiudadAlu" dataDxfId="1"/>
     <tableColumn id="14" name="c1lib"/>
     <tableColumn id="15" name="c1reg"/>
     <tableColumn id="16" name="c1prom"/>
     <tableColumn id="17" name="c2lib"/>
     <tableColumn id="18" name="c2reg"/>
     <tableColumn id="19" name="c2prom"/>
-    <tableColumn id="20" name="Abandona?" dataDxfId="1"/>
+    <tableColumn id="20" name="Abandona?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1304,13 +1302,13 @@
   <dimension ref="A1:S713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
@@ -1398,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1433,7 +1431,9 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1490,7 +1490,9 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1547,7 +1549,9 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4" s="1"/>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1604,7 +1608,9 @@
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1661,7 +1667,9 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1718,7 +1726,9 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1775,7 +1785,9 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1797,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1832,7 +1844,9 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1889,7 +1903,9 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1911,7 +1927,7 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1946,7 +1962,9 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1968,7 +1986,7 @@
         <v>26</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2003,7 +2021,9 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2060,7 +2080,9 @@
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2117,7 +2139,9 @@
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2174,7 +2198,9 @@
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2231,7 +2257,9 @@
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2288,7 +2316,9 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2310,7 +2340,7 @@
         <v>33</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2345,7 +2375,9 @@
       <c r="R18">
         <v>0</v>
       </c>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2402,7 +2434,9 @@
       <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2459,7 +2493,9 @@
       <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2516,7 +2552,9 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2573,7 +2611,9 @@
       <c r="R22">
         <v>0</v>
       </c>
-      <c r="S22" s="1"/>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -2630,7 +2670,9 @@
       <c r="R23">
         <v>0</v>
       </c>
-      <c r="S23" s="1"/>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2652,7 +2694,7 @@
         <v>39</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2687,7 +2729,9 @@
       <c r="R24">
         <v>2</v>
       </c>
-      <c r="S24" s="1"/>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2709,7 +2753,7 @@
         <v>40</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2744,7 +2788,9 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" s="1"/>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2801,7 +2847,9 @@
       <c r="R26">
         <v>2</v>
       </c>
-      <c r="S26" s="1"/>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -2858,7 +2906,9 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" s="1"/>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -2880,7 +2930,7 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2915,7 +2965,9 @@
       <c r="R28">
         <v>0</v>
       </c>
-      <c r="S28" s="1"/>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -2937,7 +2989,7 @@
         <v>42</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2972,7 +3024,9 @@
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="S29" s="1"/>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -3029,7 +3083,9 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="S30" s="1"/>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -3086,7 +3142,9 @@
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31" s="1"/>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -3143,7 +3201,9 @@
       <c r="R32">
         <v>0</v>
       </c>
-      <c r="S32" s="1"/>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -3165,7 +3225,7 @@
         <v>44</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3200,7 +3260,9 @@
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="S33" s="1"/>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -3257,7 +3319,9 @@
       <c r="R34">
         <v>1</v>
       </c>
-      <c r="S34" s="1"/>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -3314,7 +3378,9 @@
       <c r="R35">
         <v>0</v>
       </c>
-      <c r="S35" s="1"/>
+      <c r="S35" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -3371,7 +3437,9 @@
       <c r="R36">
         <v>1</v>
       </c>
-      <c r="S36" s="1"/>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -3428,7 +3496,9 @@
       <c r="R37">
         <v>1</v>
       </c>
-      <c r="S37" s="1"/>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -3485,7 +3555,9 @@
       <c r="R38">
         <v>2</v>
       </c>
-      <c r="S38" s="1"/>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -3542,7 +3614,9 @@
       <c r="R39">
         <v>1</v>
       </c>
-      <c r="S39" s="1"/>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3599,7 +3673,9 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40" s="1"/>
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -3656,7 +3732,9 @@
       <c r="R41">
         <v>3</v>
       </c>
-      <c r="S41" s="1"/>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -3713,7 +3791,9 @@
       <c r="R42">
         <v>1</v>
       </c>
-      <c r="S42" s="1"/>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -3770,7 +3850,9 @@
       <c r="R43">
         <v>2</v>
       </c>
-      <c r="S43" s="1"/>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -3827,7 +3909,9 @@
       <c r="R44">
         <v>0</v>
       </c>
-      <c r="S44" s="1"/>
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -3884,7 +3968,9 @@
       <c r="R45">
         <v>1</v>
       </c>
-      <c r="S45" s="1"/>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -3906,7 +3992,7 @@
         <v>53</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3941,7 +4027,9 @@
       <c r="R46">
         <v>0</v>
       </c>
-      <c r="S46" s="1"/>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -3998,7 +4086,9 @@
       <c r="R47">
         <v>1</v>
       </c>
-      <c r="S47" s="1"/>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -4055,7 +4145,9 @@
       <c r="R48">
         <v>4</v>
       </c>
-      <c r="S48" s="1"/>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -4112,7 +4204,9 @@
       <c r="R49">
         <v>4</v>
       </c>
-      <c r="S49" s="1"/>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -4169,7 +4263,9 @@
       <c r="R50">
         <v>4</v>
       </c>
-      <c r="S50" s="1"/>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -4226,7 +4322,9 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="S51" s="1"/>
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -4283,7 +4381,9 @@
       <c r="R52">
         <v>4</v>
       </c>
-      <c r="S52" s="1"/>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -4340,7 +4440,9 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="S53" s="1"/>
+      <c r="S53" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -4397,7 +4499,9 @@
       <c r="R54">
         <v>2</v>
       </c>
-      <c r="S54" s="1"/>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -4454,7 +4558,9 @@
       <c r="R55">
         <v>0</v>
       </c>
-      <c r="S55" s="1"/>
+      <c r="S55" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -4511,7 +4617,9 @@
       <c r="R56">
         <v>0</v>
       </c>
-      <c r="S56" s="1"/>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -4568,7 +4676,9 @@
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="S57" s="1"/>
+      <c r="S57" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -4625,7 +4735,9 @@
       <c r="R58">
         <v>2</v>
       </c>
-      <c r="S58" s="1"/>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -4682,7 +4794,9 @@
       <c r="R59">
         <v>1</v>
       </c>
-      <c r="S59" s="1"/>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -4739,7 +4853,9 @@
       <c r="R60">
         <v>1</v>
       </c>
-      <c r="S60" s="1"/>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -4796,7 +4912,9 @@
       <c r="R61">
         <v>2</v>
       </c>
-      <c r="S61" s="1"/>
+      <c r="S61" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -4818,7 +4936,7 @@
         <v>62</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4853,7 +4971,9 @@
       <c r="R62">
         <v>2</v>
       </c>
-      <c r="S62" s="1"/>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -4910,7 +5030,9 @@
       <c r="R63">
         <v>2</v>
       </c>
-      <c r="S63" s="1"/>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -4967,7 +5089,9 @@
       <c r="R64">
         <v>3</v>
       </c>
-      <c r="S64" s="1"/>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -5024,7 +5148,9 @@
       <c r="R65">
         <v>2</v>
       </c>
-      <c r="S65" s="1"/>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -5081,7 +5207,9 @@
       <c r="R66">
         <v>0</v>
       </c>
-      <c r="S66" s="1"/>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -5138,7 +5266,9 @@
       <c r="R67">
         <v>2</v>
       </c>
-      <c r="S67" s="1"/>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -5195,7 +5325,9 @@
       <c r="R68">
         <v>2</v>
       </c>
-      <c r="S68" s="1"/>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -5252,7 +5384,9 @@
       <c r="R69">
         <v>0</v>
       </c>
-      <c r="S69" s="1"/>
+      <c r="S69" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -5274,7 +5408,7 @@
         <v>10</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -5309,7 +5443,9 @@
       <c r="R70">
         <v>0</v>
       </c>
-      <c r="S70" s="1"/>
+      <c r="S70" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -5366,7 +5502,9 @@
       <c r="R71">
         <v>2</v>
       </c>
-      <c r="S71" s="1"/>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -5423,7 +5561,9 @@
       <c r="R72">
         <v>6</v>
       </c>
-      <c r="S72" s="1"/>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -5480,7 +5620,9 @@
       <c r="R73">
         <v>5</v>
       </c>
-      <c r="S73" s="1"/>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -5502,7 +5644,7 @@
         <v>22</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5537,7 +5679,9 @@
       <c r="R74">
         <v>0</v>
       </c>
-      <c r="S74" s="1"/>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -5594,7 +5738,9 @@
       <c r="R75">
         <v>0</v>
       </c>
-      <c r="S75" s="1"/>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -5651,7 +5797,9 @@
       <c r="R76">
         <v>1</v>
       </c>
-      <c r="S76" s="1"/>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -5673,7 +5821,7 @@
         <v>69</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -5708,7 +5856,9 @@
       <c r="R77">
         <v>0</v>
       </c>
-      <c r="S77" s="1"/>
+      <c r="S77" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -5730,7 +5880,7 @@
         <v>25</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -5765,7 +5915,9 @@
       <c r="R78">
         <v>2</v>
       </c>
-      <c r="S78" s="1"/>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -5822,7 +5974,9 @@
       <c r="R79">
         <v>2</v>
       </c>
-      <c r="S79" s="1"/>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -5879,7 +6033,9 @@
       <c r="R80">
         <v>3</v>
       </c>
-      <c r="S80" s="1"/>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -5936,7 +6092,9 @@
       <c r="R81">
         <v>0</v>
       </c>
-      <c r="S81" s="1"/>
+      <c r="S81" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
@@ -5993,7 +6151,9 @@
       <c r="R82">
         <v>0</v>
       </c>
-      <c r="S82" s="1"/>
+      <c r="S82" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -6050,7 +6210,9 @@
       <c r="R83">
         <v>2</v>
       </c>
-      <c r="S83" s="1"/>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -6107,7 +6269,9 @@
       <c r="R84">
         <v>0</v>
       </c>
-      <c r="S84" s="1"/>
+      <c r="S84" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -6164,7 +6328,9 @@
       <c r="R85">
         <v>2</v>
       </c>
-      <c r="S85" s="1"/>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -6221,7 +6387,9 @@
       <c r="R86">
         <v>0</v>
       </c>
-      <c r="S86" s="1"/>
+      <c r="S86" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
@@ -6278,7 +6446,9 @@
       <c r="R87">
         <v>0</v>
       </c>
-      <c r="S87" s="1"/>
+      <c r="S87" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
@@ -6335,7 +6505,9 @@
       <c r="R88">
         <v>0</v>
       </c>
-      <c r="S88" s="1"/>
+      <c r="S88" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
@@ -6392,7 +6564,9 @@
       <c r="R89">
         <v>1</v>
       </c>
-      <c r="S89" s="1"/>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -6449,7 +6623,9 @@
       <c r="R90">
         <v>0</v>
       </c>
-      <c r="S90" s="1"/>
+      <c r="S90" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -6471,7 +6647,7 @@
         <v>74</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -6506,7 +6682,9 @@
       <c r="R91">
         <v>3</v>
       </c>
-      <c r="S91" s="1"/>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -6563,7 +6741,9 @@
       <c r="R92">
         <v>0</v>
       </c>
-      <c r="S92" s="1"/>
+      <c r="S92" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
@@ -6620,7 +6800,9 @@
       <c r="R93">
         <v>5</v>
       </c>
-      <c r="S93" s="1"/>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -6677,7 +6859,9 @@
       <c r="R94">
         <v>3</v>
       </c>
-      <c r="S94" s="1"/>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
@@ -6734,7 +6918,9 @@
       <c r="R95">
         <v>0</v>
       </c>
-      <c r="S95" s="1"/>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -6791,7 +6977,9 @@
       <c r="R96">
         <v>2</v>
       </c>
-      <c r="S96" s="1"/>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -6848,7 +7036,9 @@
       <c r="R97">
         <v>0</v>
       </c>
-      <c r="S97" s="1"/>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -6870,7 +7060,7 @@
         <v>22</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -6905,7 +7095,9 @@
       <c r="R98">
         <v>2</v>
       </c>
-      <c r="S98" s="1"/>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
@@ -6962,7 +7154,9 @@
       <c r="R99">
         <v>6</v>
       </c>
-      <c r="S99" s="1"/>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
@@ -7019,7 +7213,9 @@
       <c r="R100">
         <v>0</v>
       </c>
-      <c r="S100" s="1"/>
+      <c r="S100" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
@@ -7076,7 +7272,9 @@
       <c r="R101">
         <v>2</v>
       </c>
-      <c r="S101" s="1"/>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -7133,7 +7331,9 @@
       <c r="R102">
         <v>0</v>
       </c>
-      <c r="S102" s="1"/>
+      <c r="S102" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -7190,7 +7390,9 @@
       <c r="R103">
         <v>0</v>
       </c>
-      <c r="S103" s="1"/>
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -7247,7 +7449,9 @@
       <c r="R104">
         <v>3</v>
       </c>
-      <c r="S104" s="1"/>
+      <c r="S104" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -7304,7 +7508,9 @@
       <c r="R105">
         <v>2</v>
       </c>
-      <c r="S105" s="1"/>
+      <c r="S105" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -7361,7 +7567,9 @@
       <c r="R106">
         <v>0</v>
       </c>
-      <c r="S106" s="1"/>
+      <c r="S106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -7418,7 +7626,9 @@
       <c r="R107">
         <v>1</v>
       </c>
-      <c r="S107" s="1"/>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
@@ -7475,7 +7685,9 @@
       <c r="R108">
         <v>0</v>
       </c>
-      <c r="S108" s="1"/>
+      <c r="S108" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
@@ -7497,7 +7709,7 @@
         <v>42</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -7532,7 +7744,9 @@
       <c r="R109">
         <v>0</v>
       </c>
-      <c r="S109" s="1"/>
+      <c r="S109" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -7589,7 +7803,9 @@
       <c r="R110">
         <v>0</v>
       </c>
-      <c r="S110" s="1"/>
+      <c r="S110" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
@@ -7611,7 +7827,7 @@
         <v>83</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -7646,7 +7862,9 @@
       <c r="R111">
         <v>4</v>
       </c>
-      <c r="S111" s="1"/>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
@@ -7703,7 +7921,9 @@
       <c r="R112">
         <v>3</v>
       </c>
-      <c r="S112" s="1"/>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
@@ -7760,7 +7980,9 @@
       <c r="R113">
         <v>2</v>
       </c>
-      <c r="S113" s="1"/>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
@@ -7817,7 +8039,9 @@
       <c r="R114">
         <v>2</v>
       </c>
-      <c r="S114" s="1"/>
+      <c r="S114" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
@@ -7874,7 +8098,9 @@
       <c r="R115">
         <v>0</v>
       </c>
-      <c r="S115" s="1"/>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
@@ -7931,7 +8157,9 @@
       <c r="R116">
         <v>1</v>
       </c>
-      <c r="S116" s="1"/>
+      <c r="S116" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -7988,7 +8216,9 @@
       <c r="R117">
         <v>4</v>
       </c>
-      <c r="S117" s="1"/>
+      <c r="S117" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
@@ -8045,7 +8275,9 @@
       <c r="R118">
         <v>0</v>
       </c>
-      <c r="S118" s="1"/>
+      <c r="S118" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
@@ -8067,7 +8299,7 @@
         <v>86</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -8102,7 +8334,9 @@
       <c r="R119">
         <v>2</v>
       </c>
-      <c r="S119" s="1"/>
+      <c r="S119" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
@@ -8159,7 +8393,9 @@
       <c r="R120">
         <v>0</v>
       </c>
-      <c r="S120" s="1"/>
+      <c r="S120" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
@@ -8216,7 +8452,9 @@
       <c r="R121">
         <v>0</v>
       </c>
-      <c r="S121" s="1"/>
+      <c r="S121" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -8273,7 +8511,9 @@
       <c r="R122">
         <v>0</v>
       </c>
-      <c r="S122" s="1"/>
+      <c r="S122" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -8330,7 +8570,9 @@
       <c r="R123">
         <v>2</v>
       </c>
-      <c r="S123" s="1"/>
+      <c r="S123" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -8387,7 +8629,9 @@
       <c r="R124">
         <v>2</v>
       </c>
-      <c r="S124" s="1"/>
+      <c r="S124" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
@@ -8444,7 +8688,9 @@
       <c r="R125">
         <v>0</v>
       </c>
-      <c r="S125" s="1"/>
+      <c r="S125" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
@@ -8501,7 +8747,9 @@
       <c r="R126">
         <v>0</v>
       </c>
-      <c r="S126" s="1"/>
+      <c r="S126" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
@@ -8558,7 +8806,9 @@
       <c r="R127">
         <v>2</v>
       </c>
-      <c r="S127" s="1"/>
+      <c r="S127" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
@@ -8615,7 +8865,9 @@
       <c r="R128">
         <v>4</v>
       </c>
-      <c r="S128" s="1"/>
+      <c r="S128" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -8672,7 +8924,9 @@
       <c r="R129">
         <v>0</v>
       </c>
-      <c r="S129" s="1"/>
+      <c r="S129" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
@@ -8729,7 +8983,9 @@
       <c r="R130">
         <v>0</v>
       </c>
-      <c r="S130" s="1"/>
+      <c r="S130" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
@@ -8751,7 +9007,7 @@
         <v>10</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -8786,7 +9042,9 @@
       <c r="R131">
         <v>0</v>
       </c>
-      <c r="S131" s="1"/>
+      <c r="S131" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
@@ -8843,7 +9101,9 @@
       <c r="R132">
         <v>0</v>
       </c>
-      <c r="S132" s="1"/>
+      <c r="S132" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
@@ -8900,7 +9160,9 @@
       <c r="R133">
         <v>5</v>
       </c>
-      <c r="S133" s="1"/>
+      <c r="S133" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -8957,7 +9219,9 @@
       <c r="R134">
         <v>3</v>
       </c>
-      <c r="S134" s="1"/>
+      <c r="S134" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
@@ -9014,7 +9278,9 @@
       <c r="R135">
         <v>1</v>
       </c>
-      <c r="S135" s="1"/>
+      <c r="S135" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
@@ -9071,7 +9337,9 @@
       <c r="R136">
         <v>1</v>
       </c>
-      <c r="S136" s="1"/>
+      <c r="S136" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
@@ -9128,7 +9396,9 @@
       <c r="R137">
         <v>0</v>
       </c>
-      <c r="S137" s="1"/>
+      <c r="S137" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
@@ -9150,7 +9420,7 @@
         <v>22</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -9185,7 +9455,9 @@
       <c r="R138">
         <v>2</v>
       </c>
-      <c r="S138" s="1"/>
+      <c r="S138" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
@@ -9242,7 +9514,9 @@
       <c r="R139">
         <v>2</v>
       </c>
-      <c r="S139" s="1"/>
+      <c r="S139" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -9299,7 +9573,9 @@
       <c r="R140">
         <v>0</v>
       </c>
-      <c r="S140" s="1"/>
+      <c r="S140" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -9356,7 +9632,9 @@
       <c r="R141">
         <v>5</v>
       </c>
-      <c r="S141" s="1"/>
+      <c r="S141" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
@@ -9413,7 +9691,9 @@
       <c r="R142">
         <v>0</v>
       </c>
-      <c r="S142" s="1"/>
+      <c r="S142" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
@@ -9470,7 +9750,9 @@
       <c r="R143">
         <v>0</v>
       </c>
-      <c r="S143" s="1"/>
+      <c r="S143" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -9492,7 +9774,7 @@
         <v>22</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -9527,7 +9809,9 @@
       <c r="R144">
         <v>0</v>
       </c>
-      <c r="S144" s="1"/>
+      <c r="S144" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
@@ -9584,7 +9868,9 @@
       <c r="R145">
         <v>0</v>
       </c>
-      <c r="S145" s="1"/>
+      <c r="S145" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -9606,7 +9892,7 @@
         <v>74</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -9641,7 +9927,9 @@
       <c r="R146">
         <v>2</v>
       </c>
-      <c r="S146" s="1"/>
+      <c r="S146" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
@@ -9698,7 +9986,9 @@
       <c r="R147">
         <v>0</v>
       </c>
-      <c r="S147" s="1"/>
+      <c r="S147" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
@@ -9755,7 +10045,9 @@
       <c r="R148">
         <v>4</v>
       </c>
-      <c r="S148" s="1"/>
+      <c r="S148" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
@@ -9812,7 +10104,9 @@
       <c r="R149">
         <v>0</v>
       </c>
-      <c r="S149" s="1"/>
+      <c r="S149" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
@@ -9869,7 +10163,9 @@
       <c r="R150">
         <v>5</v>
       </c>
-      <c r="S150" s="1"/>
+      <c r="S150" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
@@ -9926,7 +10222,9 @@
       <c r="R151">
         <v>0</v>
       </c>
-      <c r="S151" s="1"/>
+      <c r="S151" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -9983,7 +10281,9 @@
       <c r="R152">
         <v>0</v>
       </c>
-      <c r="S152" s="1"/>
+      <c r="S152" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -10040,7 +10340,9 @@
       <c r="R153">
         <v>5</v>
       </c>
-      <c r="S153" s="1"/>
+      <c r="S153" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
@@ -10062,7 +10364,7 @@
         <v>42</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -10097,7 +10399,9 @@
       <c r="R154">
         <v>0</v>
       </c>
-      <c r="S154" s="1"/>
+      <c r="S154" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
@@ -10154,7 +10458,9 @@
       <c r="R155">
         <v>0</v>
       </c>
-      <c r="S155" s="1"/>
+      <c r="S155" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
@@ -10211,7 +10517,9 @@
       <c r="R156">
         <v>3</v>
       </c>
-      <c r="S156" s="1"/>
+      <c r="S156" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -10268,7 +10576,9 @@
       <c r="R157">
         <v>2</v>
       </c>
-      <c r="S157" s="1"/>
+      <c r="S157" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -10325,7 +10635,9 @@
       <c r="R158">
         <v>2</v>
       </c>
-      <c r="S158" s="1"/>
+      <c r="S158" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
@@ -10347,7 +10659,7 @@
         <v>22</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -10382,7 +10694,9 @@
       <c r="R159">
         <v>3</v>
       </c>
-      <c r="S159" s="1"/>
+      <c r="S159" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
@@ -10439,7 +10753,9 @@
       <c r="R160">
         <v>2</v>
       </c>
-      <c r="S160" s="1"/>
+      <c r="S160" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
@@ -10496,7 +10812,9 @@
       <c r="R161">
         <v>0</v>
       </c>
-      <c r="S161" s="1"/>
+      <c r="S161" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
@@ -10553,7 +10871,9 @@
       <c r="R162">
         <v>0</v>
       </c>
-      <c r="S162" s="1"/>
+      <c r="S162" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -10610,7 +10930,9 @@
       <c r="R163">
         <v>0</v>
       </c>
-      <c r="S163" s="1"/>
+      <c r="S163" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -10667,7 +10989,9 @@
       <c r="R164">
         <v>0</v>
       </c>
-      <c r="S164" s="1"/>
+      <c r="S164" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
@@ -10724,7 +11048,9 @@
       <c r="R165">
         <v>4</v>
       </c>
-      <c r="S165" s="1"/>
+      <c r="S165" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
@@ -10781,7 +11107,9 @@
       <c r="R166">
         <v>0</v>
       </c>
-      <c r="S166" s="1"/>
+      <c r="S166" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -10838,7 +11166,9 @@
       <c r="R167">
         <v>0</v>
       </c>
-      <c r="S167" s="1"/>
+      <c r="S167" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
@@ -10895,7 +11225,9 @@
       <c r="R168">
         <v>2</v>
       </c>
-      <c r="S168" s="1"/>
+      <c r="S168" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
@@ -10952,7 +11284,9 @@
       <c r="R169">
         <v>1</v>
       </c>
-      <c r="S169" s="1"/>
+      <c r="S169" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
@@ -11009,7 +11343,9 @@
       <c r="R170">
         <v>3</v>
       </c>
-      <c r="S170" s="1"/>
+      <c r="S170" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
@@ -11066,7 +11402,9 @@
       <c r="R171">
         <v>3</v>
       </c>
-      <c r="S171" s="1"/>
+      <c r="S171" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
@@ -11123,7 +11461,9 @@
       <c r="R172">
         <v>0</v>
       </c>
-      <c r="S172" s="1"/>
+      <c r="S172" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -11180,7 +11520,9 @@
       <c r="R173">
         <v>0</v>
       </c>
-      <c r="S173" s="1"/>
+      <c r="S173" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
@@ -11202,7 +11544,7 @@
         <v>121</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -11237,7 +11579,9 @@
       <c r="R174">
         <v>0</v>
       </c>
-      <c r="S174" s="1"/>
+      <c r="S174" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
@@ -11259,7 +11603,7 @@
         <v>123</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -11294,7 +11638,9 @@
       <c r="R175">
         <v>2</v>
       </c>
-      <c r="S175" s="1"/>
+      <c r="S175" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
@@ -11351,7 +11697,9 @@
       <c r="R176">
         <v>1</v>
       </c>
-      <c r="S176" s="1"/>
+      <c r="S176" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -11408,7 +11756,9 @@
       <c r="R177">
         <v>0</v>
       </c>
-      <c r="S177" s="1"/>
+      <c r="S177" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
@@ -11430,7 +11780,7 @@
         <v>124</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -11465,7 +11815,9 @@
       <c r="R178">
         <v>0</v>
       </c>
-      <c r="S178" s="1"/>
+      <c r="S178" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
@@ -11522,7 +11874,9 @@
       <c r="R179">
         <v>1</v>
       </c>
-      <c r="S179" s="1"/>
+      <c r="S179" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
@@ -11579,7 +11933,9 @@
       <c r="R180">
         <v>0</v>
       </c>
-      <c r="S180" s="1"/>
+      <c r="S180" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
@@ -11636,7 +11992,9 @@
       <c r="R181">
         <v>0</v>
       </c>
-      <c r="S181" s="1"/>
+      <c r="S181" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
@@ -11693,7 +12051,9 @@
       <c r="R182">
         <v>2</v>
       </c>
-      <c r="S182" s="1"/>
+      <c r="S182" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -11715,7 +12075,7 @@
         <v>127</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -11750,7 +12110,9 @@
       <c r="R183">
         <v>0</v>
       </c>
-      <c r="S183" s="1"/>
+      <c r="S183" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
@@ -11807,7 +12169,9 @@
       <c r="R184">
         <v>1</v>
       </c>
-      <c r="S184" s="1"/>
+      <c r="S184" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
@@ -11864,7 +12228,9 @@
       <c r="R185">
         <v>0</v>
       </c>
-      <c r="S185" s="1"/>
+      <c r="S185" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
@@ -11886,7 +12252,7 @@
         <v>130</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -11921,7 +12287,9 @@
       <c r="R186">
         <v>2</v>
       </c>
-      <c r="S186" s="1"/>
+      <c r="S186" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -11978,7 +12346,9 @@
       <c r="R187">
         <v>1</v>
       </c>
-      <c r="S187" s="1"/>
+      <c r="S187" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
@@ -12035,7 +12405,9 @@
       <c r="R188">
         <v>0</v>
       </c>
-      <c r="S188" s="1"/>
+      <c r="S188" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
@@ -12092,7 +12464,9 @@
       <c r="R189">
         <v>2</v>
       </c>
-      <c r="S189" s="1"/>
+      <c r="S189" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
@@ -12114,7 +12488,7 @@
         <v>132</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -12149,7 +12523,9 @@
       <c r="R190">
         <v>0</v>
       </c>
-      <c r="S190" s="1"/>
+      <c r="S190" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
@@ -12206,7 +12582,9 @@
       <c r="R191">
         <v>5</v>
       </c>
-      <c r="S191" s="1"/>
+      <c r="S191" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
@@ -12263,7 +12641,9 @@
       <c r="R192">
         <v>4</v>
       </c>
-      <c r="S192" s="1"/>
+      <c r="S192" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -12320,7 +12700,9 @@
       <c r="R193">
         <v>3</v>
       </c>
-      <c r="S193" s="1"/>
+      <c r="S193" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
@@ -12342,7 +12724,7 @@
         <v>132</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -12377,7 +12759,9 @@
       <c r="R194">
         <v>0</v>
       </c>
-      <c r="S194" s="1"/>
+      <c r="S194" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
@@ -12434,7 +12818,9 @@
       <c r="R195">
         <v>1</v>
       </c>
-      <c r="S195" s="1"/>
+      <c r="S195" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
@@ -12491,7 +12877,9 @@
       <c r="R196">
         <v>0</v>
       </c>
-      <c r="S196" s="1"/>
+      <c r="S196" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -12548,7 +12936,9 @@
       <c r="R197">
         <v>0</v>
       </c>
-      <c r="S197" s="1"/>
+      <c r="S197" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
@@ -12570,7 +12960,7 @@
         <v>134</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -12605,7 +12995,9 @@
       <c r="R198">
         <v>0</v>
       </c>
-      <c r="S198" s="1"/>
+      <c r="S198" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
@@ -12662,7 +13054,9 @@
       <c r="R199">
         <v>0</v>
       </c>
-      <c r="S199" s="1"/>
+      <c r="S199" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
@@ -12719,7 +13113,9 @@
       <c r="R200">
         <v>3</v>
       </c>
-      <c r="S200" s="1"/>
+      <c r="S200" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
@@ -12741,7 +13137,7 @@
         <v>137</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -12776,7 +13172,9 @@
       <c r="R201">
         <v>0</v>
       </c>
-      <c r="S201" s="1"/>
+      <c r="S201" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
@@ -12798,7 +13196,7 @@
         <v>134</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -12833,7 +13231,9 @@
       <c r="R202">
         <v>0</v>
       </c>
-      <c r="S202" s="1"/>
+      <c r="S202" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -12890,7 +13290,9 @@
       <c r="R203">
         <v>0</v>
       </c>
-      <c r="S203" s="1"/>
+      <c r="S203" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
@@ -12947,7 +13349,9 @@
       <c r="R204">
         <v>0</v>
       </c>
-      <c r="S204" s="1"/>
+      <c r="S204" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
@@ -12969,7 +13373,7 @@
         <v>140</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -13004,7 +13408,9 @@
       <c r="R205">
         <v>0</v>
       </c>
-      <c r="S205" s="1"/>
+      <c r="S205" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
@@ -13026,7 +13432,7 @@
         <v>141</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -13061,7 +13467,9 @@
       <c r="R206">
         <v>3</v>
       </c>
-      <c r="S206" s="1"/>
+      <c r="S206" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
@@ -13083,7 +13491,7 @@
         <v>142</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -13118,7 +13526,9 @@
       <c r="R207">
         <v>3</v>
       </c>
-      <c r="S207" s="1"/>
+      <c r="S207" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -13140,7 +13550,7 @@
         <v>143</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -13175,7 +13585,9 @@
       <c r="R208">
         <v>0</v>
       </c>
-      <c r="S208" s="1"/>
+      <c r="S208" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
@@ -13197,7 +13609,7 @@
         <v>140</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -13232,7 +13644,9 @@
       <c r="R209">
         <v>2</v>
       </c>
-      <c r="S209" s="1"/>
+      <c r="S209" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
@@ -13289,7 +13703,9 @@
       <c r="R210">
         <v>1</v>
       </c>
-      <c r="S210" s="1"/>
+      <c r="S210" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
@@ -13346,7 +13762,9 @@
       <c r="R211">
         <v>1</v>
       </c>
-      <c r="S211" s="1"/>
+      <c r="S211" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -13368,7 +13786,7 @@
         <v>145</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -13403,7 +13821,9 @@
       <c r="R212">
         <v>2</v>
       </c>
-      <c r="S212" s="1"/>
+      <c r="S212" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
@@ -13425,7 +13845,7 @@
         <v>22</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -13460,7 +13880,9 @@
       <c r="R213">
         <v>1</v>
       </c>
-      <c r="S213" s="1"/>
+      <c r="S213" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
@@ -13517,7 +13939,9 @@
       <c r="R214">
         <v>0</v>
       </c>
-      <c r="S214" s="1"/>
+      <c r="S214" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
@@ -13539,7 +13963,7 @@
         <v>42</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -13574,7 +13998,9 @@
       <c r="R215">
         <v>0</v>
       </c>
-      <c r="S215" s="1"/>
+      <c r="S215" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
@@ -13596,7 +14022,7 @@
         <v>22</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -13631,7 +14057,9 @@
       <c r="R216">
         <v>2</v>
       </c>
-      <c r="S216" s="1"/>
+      <c r="S216" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
@@ -13688,7 +14116,9 @@
       <c r="R217">
         <v>2</v>
       </c>
-      <c r="S217" s="1"/>
+      <c r="S217" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -13745,7 +14175,9 @@
       <c r="R218">
         <v>1</v>
       </c>
-      <c r="S218" s="1"/>
+      <c r="S218" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
@@ -13802,7 +14234,9 @@
       <c r="R219">
         <v>0</v>
       </c>
-      <c r="S219" s="1"/>
+      <c r="S219" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
@@ -13859,7 +14293,9 @@
       <c r="R220">
         <v>1</v>
       </c>
-      <c r="S220" s="1"/>
+      <c r="S220" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
@@ -13916,7 +14352,9 @@
       <c r="R221">
         <v>0</v>
       </c>
-      <c r="S221" s="1"/>
+      <c r="S221" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -13973,7 +14411,9 @@
       <c r="R222">
         <v>5</v>
       </c>
-      <c r="S222" s="1"/>
+      <c r="S222" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
@@ -14030,7 +14470,9 @@
       <c r="R223">
         <v>0</v>
       </c>
-      <c r="S223" s="1"/>
+      <c r="S223" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
@@ -14087,7 +14529,9 @@
       <c r="R224">
         <v>3</v>
       </c>
-      <c r="S224" s="1"/>
+      <c r="S224" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
@@ -14144,7 +14588,9 @@
       <c r="R225">
         <v>0</v>
       </c>
-      <c r="S225" s="1"/>
+      <c r="S225" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
@@ -14201,7 +14647,9 @@
       <c r="R226">
         <v>2</v>
       </c>
-      <c r="S226" s="1"/>
+      <c r="S226" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
@@ -14258,7 +14706,9 @@
       <c r="R227">
         <v>0</v>
       </c>
-      <c r="S227" s="1"/>
+      <c r="S227" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -14315,7 +14765,9 @@
       <c r="R228">
         <v>0</v>
       </c>
-      <c r="S228" s="1"/>
+      <c r="S228" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
@@ -14372,7 +14824,9 @@
       <c r="R229">
         <v>0</v>
       </c>
-      <c r="S229" s="1"/>
+      <c r="S229" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
@@ -14429,7 +14883,9 @@
       <c r="R230">
         <v>2</v>
       </c>
-      <c r="S230" s="1"/>
+      <c r="S230" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
@@ -14486,7 +14942,9 @@
       <c r="R231">
         <v>1</v>
       </c>
-      <c r="S231" s="1"/>
+      <c r="S231" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
@@ -14543,7 +15001,9 @@
       <c r="R232">
         <v>0</v>
       </c>
-      <c r="S232" s="1"/>
+      <c r="S232" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
@@ -14565,7 +15025,7 @@
         <v>141</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -14600,7 +15060,9 @@
       <c r="R233">
         <v>2</v>
       </c>
-      <c r="S233" s="1"/>
+      <c r="S233" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
@@ -14622,7 +15084,7 @@
         <v>153</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -14657,7 +15119,9 @@
       <c r="R234">
         <v>2</v>
       </c>
-      <c r="S234" s="1"/>
+      <c r="S234" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
@@ -14714,7 +15178,9 @@
       <c r="R235">
         <v>0</v>
       </c>
-      <c r="S235" s="1"/>
+      <c r="S235" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
@@ -14771,7 +15237,9 @@
       <c r="R236">
         <v>0</v>
       </c>
-      <c r="S236" s="1"/>
+      <c r="S236" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
@@ -14828,7 +15296,9 @@
       <c r="R237">
         <v>2</v>
       </c>
-      <c r="S237" s="1"/>
+      <c r="S237" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
@@ -14885,7 +15355,9 @@
       <c r="R238">
         <v>0</v>
       </c>
-      <c r="S238" s="1"/>
+      <c r="S238" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
@@ -14942,7 +15414,9 @@
       <c r="R239">
         <v>0</v>
       </c>
-      <c r="S239" s="1"/>
+      <c r="S239" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
@@ -14999,7 +15473,9 @@
       <c r="R240">
         <v>0</v>
       </c>
-      <c r="S240" s="1"/>
+      <c r="S240" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
@@ -15021,7 +15497,7 @@
         <v>156</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -15056,7 +15532,9 @@
       <c r="R241">
         <v>0</v>
       </c>
-      <c r="S241" s="1"/>
+      <c r="S241" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
@@ -15113,7 +15591,9 @@
       <c r="R242">
         <v>0</v>
       </c>
-      <c r="S242" s="1"/>
+      <c r="S242" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
@@ -15135,7 +15615,7 @@
         <v>158</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -15170,7 +15650,9 @@
       <c r="R243">
         <v>0</v>
       </c>
-      <c r="S243" s="1"/>
+      <c r="S243" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
@@ -15227,7 +15709,9 @@
       <c r="R244">
         <v>1</v>
       </c>
-      <c r="S244" s="1"/>
+      <c r="S244" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
@@ -15284,7 +15768,9 @@
       <c r="R245">
         <v>1</v>
       </c>
-      <c r="S245" s="1"/>
+      <c r="S245" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
@@ -15341,7 +15827,9 @@
       <c r="R246">
         <v>0</v>
       </c>
-      <c r="S246" s="1"/>
+      <c r="S246" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
@@ -15398,7 +15886,9 @@
       <c r="R247">
         <v>1</v>
       </c>
-      <c r="S247" s="1"/>
+      <c r="S247" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
@@ -15455,7 +15945,9 @@
       <c r="R248">
         <v>0</v>
       </c>
-      <c r="S248" s="1"/>
+      <c r="S248" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
@@ -15512,7 +16004,9 @@
       <c r="R249">
         <v>0</v>
       </c>
-      <c r="S249" s="1"/>
+      <c r="S249" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
@@ -15569,7 +16063,9 @@
       <c r="R250">
         <v>0</v>
       </c>
-      <c r="S250" s="1"/>
+      <c r="S250" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
@@ -15626,7 +16122,9 @@
       <c r="R251">
         <v>0</v>
       </c>
-      <c r="S251" s="1"/>
+      <c r="S251" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
@@ -15683,7 +16181,9 @@
       <c r="R252">
         <v>0</v>
       </c>
-      <c r="S252" s="1"/>
+      <c r="S252" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
@@ -15740,7 +16240,9 @@
       <c r="R253">
         <v>0</v>
       </c>
-      <c r="S253" s="1"/>
+      <c r="S253" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
@@ -15762,7 +16264,7 @@
         <v>62</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -15797,7 +16299,9 @@
       <c r="R254">
         <v>0</v>
       </c>
-      <c r="S254" s="1"/>
+      <c r="S254" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
@@ -15854,7 +16358,9 @@
       <c r="R255">
         <v>0</v>
       </c>
-      <c r="S255" s="1"/>
+      <c r="S255" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
@@ -15911,7 +16417,9 @@
       <c r="R256">
         <v>1</v>
       </c>
-      <c r="S256" s="1"/>
+      <c r="S256" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
@@ -15968,7 +16476,9 @@
       <c r="R257">
         <v>0</v>
       </c>
-      <c r="S257" s="1"/>
+      <c r="S257" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
@@ -16025,7 +16535,9 @@
       <c r="R258">
         <v>2</v>
       </c>
-      <c r="S258" s="1"/>
+      <c r="S258" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
@@ -16082,7 +16594,9 @@
       <c r="R259">
         <v>0</v>
       </c>
-      <c r="S259" s="1"/>
+      <c r="S259" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
@@ -16104,7 +16618,7 @@
         <v>168</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -16139,7 +16653,9 @@
       <c r="R260">
         <v>0</v>
       </c>
-      <c r="S260" s="1"/>
+      <c r="S260" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
@@ -16196,7 +16712,9 @@
       <c r="R261">
         <v>0</v>
       </c>
-      <c r="S261" s="1"/>
+      <c r="S261" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
@@ -16218,7 +16736,7 @@
         <v>168</v>
       </c>
       <c r="G262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -16253,7 +16771,9 @@
       <c r="R262">
         <v>0</v>
       </c>
-      <c r="S262" s="1"/>
+      <c r="S262" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
@@ -16310,7 +16830,9 @@
       <c r="R263">
         <v>0</v>
       </c>
-      <c r="S263" s="1"/>
+      <c r="S263" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
@@ -16367,7 +16889,9 @@
       <c r="R264">
         <v>0</v>
       </c>
-      <c r="S264" s="1"/>
+      <c r="S264" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
@@ -16424,7 +16948,9 @@
       <c r="R265">
         <v>0</v>
       </c>
-      <c r="S265" s="1"/>
+      <c r="S265" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
@@ -16481,7 +17007,9 @@
       <c r="R266">
         <v>4</v>
       </c>
-      <c r="S266" s="1"/>
+      <c r="S266" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
@@ -16538,7 +17066,9 @@
       <c r="R267">
         <v>0</v>
       </c>
-      <c r="S267" s="1"/>
+      <c r="S267" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
@@ -16595,7 +17125,9 @@
       <c r="R268">
         <v>0</v>
       </c>
-      <c r="S268" s="1"/>
+      <c r="S268" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
@@ -16652,7 +17184,9 @@
       <c r="R269">
         <v>0</v>
       </c>
-      <c r="S269" s="1"/>
+      <c r="S269" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
@@ -16709,7 +17243,9 @@
       <c r="R270">
         <v>0</v>
       </c>
-      <c r="S270" s="1"/>
+      <c r="S270" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
@@ -16766,7 +17302,9 @@
       <c r="R271">
         <v>0</v>
       </c>
-      <c r="S271" s="1"/>
+      <c r="S271" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
@@ -16823,7 +17361,9 @@
       <c r="R272">
         <v>1</v>
       </c>
-      <c r="S272" s="1"/>
+      <c r="S272" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
@@ -16880,7 +17420,9 @@
       <c r="R273">
         <v>0</v>
       </c>
-      <c r="S273" s="1"/>
+      <c r="S273" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
@@ -16937,7 +17479,9 @@
       <c r="R274">
         <v>0</v>
       </c>
-      <c r="S274" s="1"/>
+      <c r="S274" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
@@ -16994,7 +17538,9 @@
       <c r="R275">
         <v>0</v>
       </c>
-      <c r="S275" s="1"/>
+      <c r="S275" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
@@ -17051,7 +17597,9 @@
       <c r="R276">
         <v>0</v>
       </c>
-      <c r="S276" s="1"/>
+      <c r="S276" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
@@ -17108,7 +17656,9 @@
       <c r="R277">
         <v>0</v>
       </c>
-      <c r="S277" s="1"/>
+      <c r="S277" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
@@ -17165,7 +17715,9 @@
       <c r="R278">
         <v>1</v>
       </c>
-      <c r="S278" s="1"/>
+      <c r="S278" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
@@ -17222,7 +17774,9 @@
       <c r="R279">
         <v>0</v>
       </c>
-      <c r="S279" s="1"/>
+      <c r="S279" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
@@ -17279,7 +17833,9 @@
       <c r="R280">
         <v>0</v>
       </c>
-      <c r="S280" s="1"/>
+      <c r="S280" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
@@ -17301,7 +17857,7 @@
         <v>156</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -17336,7 +17892,9 @@
       <c r="R281">
         <v>1</v>
       </c>
-      <c r="S281" s="1"/>
+      <c r="S281" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
@@ -17393,7 +17951,9 @@
       <c r="R282">
         <v>0</v>
       </c>
-      <c r="S282" s="1"/>
+      <c r="S282" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
@@ -17450,7 +18010,9 @@
       <c r="R283">
         <v>0</v>
       </c>
-      <c r="S283" s="1"/>
+      <c r="S283" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
@@ -17507,7 +18069,9 @@
       <c r="R284">
         <v>0</v>
       </c>
-      <c r="S284" s="1"/>
+      <c r="S284" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
@@ -17564,7 +18128,9 @@
       <c r="R285">
         <v>1</v>
       </c>
-      <c r="S285" s="1"/>
+      <c r="S285" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
@@ -17586,7 +18152,7 @@
         <v>168</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -17621,7 +18187,9 @@
       <c r="R286">
         <v>0</v>
       </c>
-      <c r="S286" s="1"/>
+      <c r="S286" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
@@ -17678,7 +18246,9 @@
       <c r="R287">
         <v>0</v>
       </c>
-      <c r="S287" s="1"/>
+      <c r="S287" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
@@ -17735,7 +18305,9 @@
       <c r="R288">
         <v>0</v>
       </c>
-      <c r="S288" s="1"/>
+      <c r="S288" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
@@ -17792,7 +18364,9 @@
       <c r="R289">
         <v>0</v>
       </c>
-      <c r="S289" s="1"/>
+      <c r="S289" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
@@ -17849,7 +18423,9 @@
       <c r="R290">
         <v>0</v>
       </c>
-      <c r="S290" s="1"/>
+      <c r="S290" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
@@ -17906,7 +18482,9 @@
       <c r="R291">
         <v>0</v>
       </c>
-      <c r="S291" s="1"/>
+      <c r="S291" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
@@ -17928,7 +18506,7 @@
         <v>86</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -17963,7 +18541,9 @@
       <c r="R292">
         <v>2</v>
       </c>
-      <c r="S292" s="1"/>
+      <c r="S292" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
@@ -18020,7 +18600,9 @@
       <c r="R293">
         <v>1</v>
       </c>
-      <c r="S293" s="1"/>
+      <c r="S293" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
@@ -18077,7 +18659,9 @@
       <c r="R294">
         <v>0</v>
       </c>
-      <c r="S294" s="1"/>
+      <c r="S294" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
@@ -18134,7 +18718,9 @@
       <c r="R295">
         <v>0</v>
       </c>
-      <c r="S295" s="1"/>
+      <c r="S295" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
@@ -18191,7 +18777,9 @@
       <c r="R296">
         <v>0</v>
       </c>
-      <c r="S296" s="1"/>
+      <c r="S296" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
@@ -18248,7 +18836,9 @@
       <c r="R297">
         <v>0</v>
       </c>
-      <c r="S297" s="1"/>
+      <c r="S297" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
@@ -18305,7 +18895,9 @@
       <c r="R298">
         <v>0</v>
       </c>
-      <c r="S298" s="1"/>
+      <c r="S298" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
@@ -18327,7 +18919,7 @@
         <v>134</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -18362,7 +18954,9 @@
       <c r="R299">
         <v>0</v>
       </c>
-      <c r="S299" s="1"/>
+      <c r="S299" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
@@ -18419,7 +19013,9 @@
       <c r="R300">
         <v>0</v>
       </c>
-      <c r="S300" s="1"/>
+      <c r="S300" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
@@ -18476,7 +19072,9 @@
       <c r="R301">
         <v>0</v>
       </c>
-      <c r="S301" s="1"/>
+      <c r="S301" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
@@ -18533,7 +19131,9 @@
       <c r="R302">
         <v>0</v>
       </c>
-      <c r="S302" s="1"/>
+      <c r="S302" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
@@ -18590,7 +19190,9 @@
       <c r="R303">
         <v>2</v>
       </c>
-      <c r="S303" s="1"/>
+      <c r="S303" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
@@ -18647,7 +19249,9 @@
       <c r="R304">
         <v>0</v>
       </c>
-      <c r="S304" s="1"/>
+      <c r="S304" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
@@ -18704,7 +19308,9 @@
       <c r="R305">
         <v>0</v>
       </c>
-      <c r="S305" s="1"/>
+      <c r="S305" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
@@ -18726,7 +19332,7 @@
         <v>183</v>
       </c>
       <c r="G306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H306">
         <v>0</v>
@@ -18761,7 +19367,9 @@
       <c r="R306">
         <v>0</v>
       </c>
-      <c r="S306" s="1"/>
+      <c r="S306" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
@@ -18818,7 +19426,9 @@
       <c r="R307">
         <v>0</v>
       </c>
-      <c r="S307" s="1"/>
+      <c r="S307" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
@@ -18875,7 +19485,9 @@
       <c r="R308">
         <v>4</v>
       </c>
-      <c r="S308" s="1"/>
+      <c r="S308" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
@@ -18932,7 +19544,9 @@
       <c r="R309">
         <v>0</v>
       </c>
-      <c r="S309" s="1"/>
+      <c r="S309" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
@@ -18989,7 +19603,9 @@
       <c r="R310">
         <v>2</v>
       </c>
-      <c r="S310" s="1"/>
+      <c r="S310" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
@@ -19046,7 +19662,9 @@
       <c r="R311">
         <v>0</v>
       </c>
-      <c r="S311" s="1"/>
+      <c r="S311" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
@@ -19103,7 +19721,9 @@
       <c r="R312">
         <v>0</v>
       </c>
-      <c r="S312" s="1"/>
+      <c r="S312" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
@@ -19125,7 +19745,7 @@
         <v>22</v>
       </c>
       <c r="G313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H313">
         <v>0</v>
@@ -19160,7 +19780,9 @@
       <c r="R313">
         <v>1</v>
       </c>
-      <c r="S313" s="1"/>
+      <c r="S313" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
@@ -19217,7 +19839,9 @@
       <c r="R314">
         <v>0</v>
       </c>
-      <c r="S314" s="1"/>
+      <c r="S314" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
@@ -19274,7 +19898,9 @@
       <c r="R315">
         <v>0</v>
       </c>
-      <c r="S315" s="1"/>
+      <c r="S315" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
@@ -19296,7 +19922,7 @@
         <v>133</v>
       </c>
       <c r="G316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -19331,7 +19957,9 @@
       <c r="R316">
         <v>0</v>
       </c>
-      <c r="S316" s="1"/>
+      <c r="S316" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
@@ -19388,7 +20016,9 @@
       <c r="R317">
         <v>1</v>
       </c>
-      <c r="S317" s="1"/>
+      <c r="S317" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
@@ -19445,7 +20075,9 @@
       <c r="R318">
         <v>0</v>
       </c>
-      <c r="S318" s="1"/>
+      <c r="S318" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
@@ -19502,7 +20134,9 @@
       <c r="R319">
         <v>0</v>
       </c>
-      <c r="S319" s="1"/>
+      <c r="S319" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
@@ -19559,7 +20193,9 @@
       <c r="R320">
         <v>2</v>
       </c>
-      <c r="S320" s="1"/>
+      <c r="S320" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
@@ -19616,7 +20252,9 @@
       <c r="R321">
         <v>4</v>
       </c>
-      <c r="S321" s="1"/>
+      <c r="S321" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
@@ -19673,7 +20311,9 @@
       <c r="R322">
         <v>0</v>
       </c>
-      <c r="S322" s="1"/>
+      <c r="S322" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
@@ -19695,7 +20335,7 @@
         <v>188</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -19730,7 +20370,9 @@
       <c r="R323">
         <v>2</v>
       </c>
-      <c r="S323" s="1"/>
+      <c r="S323" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
@@ -19787,7 +20429,9 @@
       <c r="R324">
         <v>0</v>
       </c>
-      <c r="S324" s="1"/>
+      <c r="S324" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
@@ -19844,7 +20488,9 @@
       <c r="R325">
         <v>1</v>
       </c>
-      <c r="S325" s="1"/>
+      <c r="S325" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
@@ -19901,7 +20547,9 @@
       <c r="R326">
         <v>0</v>
       </c>
-      <c r="S326" s="1"/>
+      <c r="S326" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
@@ -19958,7 +20606,9 @@
       <c r="R327">
         <v>0</v>
       </c>
-      <c r="S327" s="1"/>
+      <c r="S327" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
@@ -20015,7 +20665,9 @@
       <c r="R328">
         <v>0</v>
       </c>
-      <c r="S328" s="1"/>
+      <c r="S328" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
@@ -20072,7 +20724,9 @@
       <c r="R329">
         <v>0</v>
       </c>
-      <c r="S329" s="1"/>
+      <c r="S329" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
@@ -20129,7 +20783,9 @@
       <c r="R330">
         <v>0</v>
       </c>
-      <c r="S330" s="1"/>
+      <c r="S330" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
@@ -20186,7 +20842,9 @@
       <c r="R331">
         <v>0</v>
       </c>
-      <c r="S331" s="1"/>
+      <c r="S331" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
@@ -20243,7 +20901,9 @@
       <c r="R332">
         <v>0</v>
       </c>
-      <c r="S332" s="1"/>
+      <c r="S332" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
@@ -20300,7 +20960,9 @@
       <c r="R333">
         <v>1</v>
       </c>
-      <c r="S333" s="1"/>
+      <c r="S333" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
@@ -20357,7 +21019,9 @@
       <c r="R334">
         <v>0</v>
       </c>
-      <c r="S334" s="1"/>
+      <c r="S334" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
@@ -20414,7 +21078,9 @@
       <c r="R335">
         <v>0</v>
       </c>
-      <c r="S335" s="1"/>
+      <c r="S335" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
@@ -20471,7 +21137,9 @@
       <c r="R336">
         <v>0</v>
       </c>
-      <c r="S336" s="1"/>
+      <c r="S336" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
@@ -20528,7 +21196,9 @@
       <c r="R337">
         <v>0</v>
       </c>
-      <c r="S337" s="1"/>
+      <c r="S337" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
@@ -20585,7 +21255,9 @@
       <c r="R338">
         <v>0</v>
       </c>
-      <c r="S338" s="1"/>
+      <c r="S338" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
@@ -20642,7 +21314,9 @@
       <c r="R339">
         <v>0</v>
       </c>
-      <c r="S339" s="1"/>
+      <c r="S339" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
@@ -20664,7 +21338,7 @@
         <v>198</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H340">
         <v>0</v>
@@ -20699,7 +21373,9 @@
       <c r="R340">
         <v>0</v>
       </c>
-      <c r="S340" s="1"/>
+      <c r="S340" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
@@ -20756,7 +21432,9 @@
       <c r="R341">
         <v>1</v>
       </c>
-      <c r="S341" s="1"/>
+      <c r="S341" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
@@ -20813,7 +21491,9 @@
       <c r="R342">
         <v>0</v>
       </c>
-      <c r="S342" s="1"/>
+      <c r="S342" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
@@ -20870,7 +21550,9 @@
       <c r="R343">
         <v>0</v>
       </c>
-      <c r="S343" s="1"/>
+      <c r="S343" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
@@ -20927,7 +21609,9 @@
       <c r="R344">
         <v>1</v>
       </c>
-      <c r="S344" s="1"/>
+      <c r="S344" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
@@ -20984,7 +21668,9 @@
       <c r="R345">
         <v>0</v>
       </c>
-      <c r="S345" s="1"/>
+      <c r="S345" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
@@ -21041,7 +21727,9 @@
       <c r="R346">
         <v>0</v>
       </c>
-      <c r="S346" s="1"/>
+      <c r="S346" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
@@ -21098,7 +21786,9 @@
       <c r="R347">
         <v>0</v>
       </c>
-      <c r="S347" s="1"/>
+      <c r="S347" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
@@ -21155,7 +21845,9 @@
       <c r="R348">
         <v>0</v>
       </c>
-      <c r="S348" s="1"/>
+      <c r="S348" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
@@ -21212,7 +21904,9 @@
       <c r="R349">
         <v>0</v>
       </c>
-      <c r="S349" s="1"/>
+      <c r="S349" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
@@ -21234,7 +21928,7 @@
         <v>168</v>
       </c>
       <c r="G350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H350">
         <v>0</v>
@@ -21269,7 +21963,9 @@
       <c r="R350">
         <v>0</v>
       </c>
-      <c r="S350" s="1"/>
+      <c r="S350" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
@@ -21326,7 +22022,9 @@
       <c r="R351">
         <v>0</v>
       </c>
-      <c r="S351" s="1"/>
+      <c r="S351" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
@@ -21383,7 +22081,9 @@
       <c r="R352">
         <v>1</v>
       </c>
-      <c r="S352" s="1"/>
+      <c r="S352" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
@@ -21405,7 +22105,7 @@
         <v>201</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H353">
         <v>0</v>
@@ -21440,7 +22140,9 @@
       <c r="R353">
         <v>0</v>
       </c>
-      <c r="S353" s="1"/>
+      <c r="S353" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
@@ -21497,7 +22199,9 @@
       <c r="R354">
         <v>0</v>
       </c>
-      <c r="S354" s="1"/>
+      <c r="S354" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
@@ -21554,7 +22258,9 @@
       <c r="R355">
         <v>0</v>
       </c>
-      <c r="S355" s="1"/>
+      <c r="S355" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
@@ -21611,7 +22317,9 @@
       <c r="R356">
         <v>0</v>
       </c>
-      <c r="S356" s="1"/>
+      <c r="S356" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
@@ -21668,7 +22376,9 @@
       <c r="R357">
         <v>0</v>
       </c>
-      <c r="S357" s="1"/>
+      <c r="S357" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
@@ -21725,7 +22435,9 @@
       <c r="R358">
         <v>0</v>
       </c>
-      <c r="S358" s="1"/>
+      <c r="S358" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
@@ -21747,7 +22459,7 @@
         <v>22</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -21782,7 +22494,9 @@
       <c r="R359">
         <v>0</v>
       </c>
-      <c r="S359" s="1"/>
+      <c r="S359" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
@@ -21839,7 +22553,9 @@
       <c r="R360">
         <v>0</v>
       </c>
-      <c r="S360" s="1"/>
+      <c r="S360" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
@@ -21896,7 +22612,9 @@
       <c r="R361">
         <v>0</v>
       </c>
-      <c r="S361" s="1"/>
+      <c r="S361" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
@@ -21953,7 +22671,9 @@
       <c r="R362">
         <v>0</v>
       </c>
-      <c r="S362" s="1"/>
+      <c r="S362" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
@@ -22010,7 +22730,9 @@
       <c r="R363">
         <v>0</v>
       </c>
-      <c r="S363" s="1"/>
+      <c r="S363" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
@@ -22067,7 +22789,9 @@
       <c r="R364">
         <v>0</v>
       </c>
-      <c r="S364" s="1"/>
+      <c r="S364" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
@@ -22124,7 +22848,9 @@
       <c r="R365">
         <v>0</v>
       </c>
-      <c r="S365" s="1"/>
+      <c r="S365" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
@@ -22181,7 +22907,9 @@
       <c r="R366">
         <v>0</v>
       </c>
-      <c r="S366" s="1"/>
+      <c r="S366" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
@@ -22238,7 +22966,9 @@
       <c r="R367">
         <v>1</v>
       </c>
-      <c r="S367" s="1"/>
+      <c r="S367" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
@@ -22295,7 +23025,9 @@
       <c r="R368">
         <v>0</v>
       </c>
-      <c r="S368" s="1"/>
+      <c r="S368" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
@@ -22317,7 +23049,7 @@
         <v>153</v>
       </c>
       <c r="G369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H369">
         <v>0</v>
@@ -22352,7 +23084,9 @@
       <c r="R369">
         <v>3</v>
       </c>
-      <c r="S369" s="1"/>
+      <c r="S369" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
@@ -22409,7 +23143,9 @@
       <c r="R370">
         <v>2</v>
       </c>
-      <c r="S370" s="1"/>
+      <c r="S370" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
@@ -22431,7 +23167,7 @@
         <v>145</v>
       </c>
       <c r="G371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H371">
         <v>0</v>
@@ -22466,7 +23202,9 @@
       <c r="R371">
         <v>0</v>
       </c>
-      <c r="S371" s="1"/>
+      <c r="S371" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
@@ -22488,7 +23226,7 @@
         <v>168</v>
       </c>
       <c r="G372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H372">
         <v>0</v>
@@ -22523,7 +23261,9 @@
       <c r="R372">
         <v>3</v>
       </c>
-      <c r="S372" s="1"/>
+      <c r="S372" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
@@ -22580,7 +23320,9 @@
       <c r="R373">
         <v>0</v>
       </c>
-      <c r="S373" s="1"/>
+      <c r="S373" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
@@ -22637,7 +23379,9 @@
       <c r="R374">
         <v>0</v>
       </c>
-      <c r="S374" s="1"/>
+      <c r="S374" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
@@ -22694,7 +23438,9 @@
       <c r="R375">
         <v>0</v>
       </c>
-      <c r="S375" s="1"/>
+      <c r="S375" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
@@ -22751,7 +23497,9 @@
       <c r="R376">
         <v>0</v>
       </c>
-      <c r="S376" s="1"/>
+      <c r="S376" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
@@ -22773,7 +23521,7 @@
         <v>168</v>
       </c>
       <c r="G377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H377">
         <v>0</v>
@@ -22808,7 +23556,9 @@
       <c r="R377">
         <v>0</v>
       </c>
-      <c r="S377" s="1"/>
+      <c r="S377" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
@@ -22830,7 +23580,7 @@
         <v>124</v>
       </c>
       <c r="G378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H378">
         <v>0</v>
@@ -22865,7 +23615,9 @@
       <c r="R378">
         <v>0</v>
       </c>
-      <c r="S378" s="1"/>
+      <c r="S378" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
@@ -22922,7 +23674,9 @@
       <c r="R379">
         <v>0</v>
       </c>
-      <c r="S379" s="1"/>
+      <c r="S379" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
@@ -22979,7 +23733,9 @@
       <c r="R380">
         <v>0</v>
       </c>
-      <c r="S380" s="1"/>
+      <c r="S380" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
@@ -23001,7 +23757,7 @@
         <v>33</v>
       </c>
       <c r="G381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H381">
         <v>0</v>
@@ -23036,7 +23792,9 @@
       <c r="R381">
         <v>0</v>
       </c>
-      <c r="S381" s="1"/>
+      <c r="S381" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
@@ -23093,7 +23851,9 @@
       <c r="R382">
         <v>0</v>
       </c>
-      <c r="S382" s="1"/>
+      <c r="S382" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
@@ -23150,7 +23910,9 @@
       <c r="R383">
         <v>0</v>
       </c>
-      <c r="S383" s="1"/>
+      <c r="S383" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
@@ -23207,7 +23969,9 @@
       <c r="R384">
         <v>0</v>
       </c>
-      <c r="S384" s="1"/>
+      <c r="S384" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
@@ -23264,7 +24028,9 @@
       <c r="R385">
         <v>0</v>
       </c>
-      <c r="S385" s="1"/>
+      <c r="S385" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
@@ -23321,7 +24087,9 @@
       <c r="R386">
         <v>0</v>
       </c>
-      <c r="S386" s="1"/>
+      <c r="S386" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
@@ -23343,7 +24111,7 @@
         <v>145</v>
       </c>
       <c r="G387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H387">
         <v>0</v>
@@ -23378,7 +24146,9 @@
       <c r="R387">
         <v>1</v>
       </c>
-      <c r="S387" s="1"/>
+      <c r="S387" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
@@ -23400,7 +24170,7 @@
         <v>62</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H388">
         <v>0</v>
@@ -23435,7 +24205,9 @@
       <c r="R388">
         <v>0</v>
       </c>
-      <c r="S388" s="1"/>
+      <c r="S388" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
@@ -23492,7 +24264,9 @@
       <c r="R389">
         <v>0</v>
       </c>
-      <c r="S389" s="1"/>
+      <c r="S389" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
@@ -23549,7 +24323,9 @@
       <c r="R390">
         <v>0</v>
       </c>
-      <c r="S390" s="1"/>
+      <c r="S390" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
@@ -23606,7 +24382,9 @@
       <c r="R391">
         <v>4</v>
       </c>
-      <c r="S391" s="1"/>
+      <c r="S391" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
@@ -23663,7 +24441,9 @@
       <c r="R392">
         <v>0</v>
       </c>
-      <c r="S392" s="1"/>
+      <c r="S392" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
@@ -23720,7 +24500,9 @@
       <c r="R393">
         <v>2</v>
       </c>
-      <c r="S393" s="1"/>
+      <c r="S393" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
@@ -23777,7 +24559,9 @@
       <c r="R394">
         <v>0</v>
       </c>
-      <c r="S394" s="1"/>
+      <c r="S394" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
@@ -23834,7 +24618,9 @@
       <c r="R395">
         <v>0</v>
       </c>
-      <c r="S395" s="1"/>
+      <c r="S395" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
@@ -23891,7 +24677,9 @@
       <c r="R396">
         <v>0</v>
       </c>
-      <c r="S396" s="1"/>
+      <c r="S396" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
@@ -23948,7 +24736,9 @@
       <c r="R397">
         <v>0</v>
       </c>
-      <c r="S397" s="1"/>
+      <c r="S397" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
@@ -24005,7 +24795,9 @@
       <c r="R398">
         <v>0</v>
       </c>
-      <c r="S398" s="1"/>
+      <c r="S398" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
@@ -24027,7 +24819,7 @@
         <v>214</v>
       </c>
       <c r="G399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H399">
         <v>0</v>
@@ -24062,7 +24854,9 @@
       <c r="R399">
         <v>0</v>
       </c>
-      <c r="S399" s="1"/>
+      <c r="S399" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
@@ -24119,7 +24913,9 @@
       <c r="R400">
         <v>0</v>
       </c>
-      <c r="S400" s="1"/>
+      <c r="S400" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
@@ -24176,7 +24972,9 @@
       <c r="R401">
         <v>0</v>
       </c>
-      <c r="S401" s="1"/>
+      <c r="S401" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
@@ -24233,7 +25031,9 @@
       <c r="R402">
         <v>1</v>
       </c>
-      <c r="S402" s="1"/>
+      <c r="S402" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
@@ -24290,7 +25090,9 @@
       <c r="R403">
         <v>0</v>
       </c>
-      <c r="S403" s="1"/>
+      <c r="S403" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
@@ -24347,7 +25149,9 @@
       <c r="R404">
         <v>0</v>
       </c>
-      <c r="S404" s="1"/>
+      <c r="S404" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
@@ -24404,7 +25208,9 @@
       <c r="R405">
         <v>1</v>
       </c>
-      <c r="S405" s="1"/>
+      <c r="S405" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
@@ -24461,7 +25267,9 @@
       <c r="R406">
         <v>0</v>
       </c>
-      <c r="S406" s="1"/>
+      <c r="S406" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
@@ -24518,7 +25326,9 @@
       <c r="R407">
         <v>0</v>
       </c>
-      <c r="S407" s="1"/>
+      <c r="S407" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
@@ -24575,7 +25385,9 @@
       <c r="R408">
         <v>0</v>
       </c>
-      <c r="S408" s="1"/>
+      <c r="S408" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
@@ -24632,7 +25444,9 @@
       <c r="R409">
         <v>3</v>
       </c>
-      <c r="S409" s="1"/>
+      <c r="S409" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
@@ -24689,7 +25503,9 @@
       <c r="R410">
         <v>0</v>
       </c>
-      <c r="S410" s="1"/>
+      <c r="S410" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
@@ -24746,7 +25562,9 @@
       <c r="R411">
         <v>0</v>
       </c>
-      <c r="S411" s="1"/>
+      <c r="S411" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
@@ -24768,7 +25586,7 @@
         <v>219</v>
       </c>
       <c r="G412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -24803,7 +25621,9 @@
       <c r="R412">
         <v>0</v>
       </c>
-      <c r="S412" s="1"/>
+      <c r="S412" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
@@ -24860,7 +25680,9 @@
       <c r="R413">
         <v>0</v>
       </c>
-      <c r="S413" s="1"/>
+      <c r="S413" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
@@ -24917,7 +25739,9 @@
       <c r="R414">
         <v>0</v>
       </c>
-      <c r="S414" s="1"/>
+      <c r="S414" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
@@ -24974,7 +25798,9 @@
       <c r="R415">
         <v>0</v>
       </c>
-      <c r="S415" s="1"/>
+      <c r="S415" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
@@ -25031,7 +25857,9 @@
       <c r="R416">
         <v>0</v>
       </c>
-      <c r="S416" s="1"/>
+      <c r="S416" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
@@ -25088,7 +25916,9 @@
       <c r="R417">
         <v>3</v>
       </c>
-      <c r="S417" s="1"/>
+      <c r="S417" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
@@ -25145,7 +25975,9 @@
       <c r="R418">
         <v>0</v>
       </c>
-      <c r="S418" s="1"/>
+      <c r="S418" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
@@ -25202,7 +26034,9 @@
       <c r="R419">
         <v>1</v>
       </c>
-      <c r="S419" s="1"/>
+      <c r="S419" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
@@ -25259,7 +26093,9 @@
       <c r="R420">
         <v>2</v>
       </c>
-      <c r="S420" s="1"/>
+      <c r="S420" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
@@ -25316,7 +26152,9 @@
       <c r="R421">
         <v>0</v>
       </c>
-      <c r="S421" s="1"/>
+      <c r="S421" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
@@ -25373,7 +26211,9 @@
       <c r="R422">
         <v>0</v>
       </c>
-      <c r="S422" s="1"/>
+      <c r="S422" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
@@ -25430,7 +26270,9 @@
       <c r="R423">
         <v>0</v>
       </c>
-      <c r="S423" s="1"/>
+      <c r="S423" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
@@ -25487,7 +26329,9 @@
       <c r="R424">
         <v>0</v>
       </c>
-      <c r="S424" s="1"/>
+      <c r="S424" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
@@ -25544,7 +26388,9 @@
       <c r="R425">
         <v>0</v>
       </c>
-      <c r="S425" s="1"/>
+      <c r="S425" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
@@ -25601,7 +26447,9 @@
       <c r="R426">
         <v>1</v>
       </c>
-      <c r="S426" s="1"/>
+      <c r="S426" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
@@ -25658,7 +26506,9 @@
       <c r="R427">
         <v>0</v>
       </c>
-      <c r="S427" s="1"/>
+      <c r="S427" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
@@ -25715,7 +26565,9 @@
       <c r="R428">
         <v>0</v>
       </c>
-      <c r="S428" s="1"/>
+      <c r="S428" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
@@ -25737,7 +26589,7 @@
         <v>145</v>
       </c>
       <c r="G429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H429">
         <v>0</v>
@@ -25772,7 +26624,9 @@
       <c r="R429">
         <v>1</v>
       </c>
-      <c r="S429" s="1"/>
+      <c r="S429" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
@@ -25829,7 +26683,9 @@
       <c r="R430">
         <v>3</v>
       </c>
-      <c r="S430" s="1"/>
+      <c r="S430" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
@@ -25886,7 +26742,9 @@
       <c r="R431">
         <v>1</v>
       </c>
-      <c r="S431" s="1"/>
+      <c r="S431" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
@@ -25943,7 +26801,9 @@
       <c r="R432">
         <v>1</v>
       </c>
-      <c r="S432" s="1"/>
+      <c r="S432" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
@@ -25965,7 +26825,7 @@
         <v>222</v>
       </c>
       <c r="G433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H433">
         <v>0</v>
@@ -26000,7 +26860,9 @@
       <c r="R433">
         <v>0</v>
       </c>
-      <c r="S433" s="1"/>
+      <c r="S433" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
@@ -26022,7 +26884,7 @@
         <v>224</v>
       </c>
       <c r="G434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H434">
         <v>0</v>
@@ -26057,7 +26919,9 @@
       <c r="R434">
         <v>0</v>
       </c>
-      <c r="S434" s="1"/>
+      <c r="S434" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
@@ -26114,7 +26978,9 @@
       <c r="R435">
         <v>0</v>
       </c>
-      <c r="S435" s="1"/>
+      <c r="S435" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
@@ -26171,7 +27037,9 @@
       <c r="R436">
         <v>0</v>
       </c>
-      <c r="S436" s="1"/>
+      <c r="S436" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
@@ -26228,7 +27096,9 @@
       <c r="R437">
         <v>2</v>
       </c>
-      <c r="S437" s="1"/>
+      <c r="S437" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
@@ -26250,7 +27120,7 @@
         <v>225</v>
       </c>
       <c r="G438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H438">
         <v>0</v>
@@ -26285,7 +27155,9 @@
       <c r="R438">
         <v>0</v>
       </c>
-      <c r="S438" s="1"/>
+      <c r="S438" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
@@ -26342,7 +27214,9 @@
       <c r="R439">
         <v>3</v>
       </c>
-      <c r="S439" s="1"/>
+      <c r="S439" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
@@ -26399,7 +27273,9 @@
       <c r="R440">
         <v>0</v>
       </c>
-      <c r="S440" s="1"/>
+      <c r="S440" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
@@ -26456,7 +27332,9 @@
       <c r="R441">
         <v>0</v>
       </c>
-      <c r="S441" s="1"/>
+      <c r="S441" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
@@ -26513,7 +27391,9 @@
       <c r="R442">
         <v>1</v>
       </c>
-      <c r="S442" s="1"/>
+      <c r="S442" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
@@ -26570,7 +27450,9 @@
       <c r="R443">
         <v>2</v>
       </c>
-      <c r="S443" s="1"/>
+      <c r="S443" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
@@ -26627,7 +27509,9 @@
       <c r="R444">
         <v>2</v>
       </c>
-      <c r="S444" s="1"/>
+      <c r="S444" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
@@ -26649,7 +27533,7 @@
         <v>40</v>
       </c>
       <c r="G445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H445">
         <v>0</v>
@@ -26684,7 +27568,9 @@
       <c r="R445">
         <v>2</v>
       </c>
-      <c r="S445" s="1"/>
+      <c r="S445" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
@@ -26741,7 +27627,9 @@
       <c r="R446">
         <v>2</v>
       </c>
-      <c r="S446" s="1"/>
+      <c r="S446" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
@@ -26798,7 +27686,9 @@
       <c r="R447">
         <v>1</v>
       </c>
-      <c r="S447" s="1"/>
+      <c r="S447" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
@@ -26855,7 +27745,9 @@
       <c r="R448">
         <v>1</v>
       </c>
-      <c r="S448" s="1"/>
+      <c r="S448" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
@@ -26912,7 +27804,9 @@
       <c r="R449">
         <v>3</v>
       </c>
-      <c r="S449" s="1"/>
+      <c r="S449" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
@@ -26969,7 +27863,9 @@
       <c r="R450">
         <v>0</v>
       </c>
-      <c r="S450" s="1"/>
+      <c r="S450" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
@@ -27026,7 +27922,9 @@
       <c r="R451">
         <v>0</v>
       </c>
-      <c r="S451" s="1"/>
+      <c r="S451" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
@@ -27083,7 +27981,9 @@
       <c r="R452">
         <v>0</v>
       </c>
-      <c r="S452" s="1"/>
+      <c r="S452" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
@@ -27140,7 +28040,9 @@
       <c r="R453">
         <v>0</v>
       </c>
-      <c r="S453" s="1"/>
+      <c r="S453" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
@@ -27197,7 +28099,9 @@
       <c r="R454">
         <v>2</v>
       </c>
-      <c r="S454" s="1"/>
+      <c r="S454" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
@@ -27254,7 +28158,9 @@
       <c r="R455">
         <v>0</v>
       </c>
-      <c r="S455" s="1"/>
+      <c r="S455" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
@@ -27311,7 +28217,9 @@
       <c r="R456">
         <v>0</v>
       </c>
-      <c r="S456" s="1"/>
+      <c r="S456" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
@@ -27368,7 +28276,9 @@
       <c r="R457">
         <v>1</v>
       </c>
-      <c r="S457" s="1"/>
+      <c r="S457" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
@@ -27425,7 +28335,9 @@
       <c r="R458">
         <v>0</v>
       </c>
-      <c r="S458" s="1"/>
+      <c r="S458" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
@@ -27482,7 +28394,9 @@
       <c r="R459">
         <v>1</v>
       </c>
-      <c r="S459" s="1"/>
+      <c r="S459" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
@@ -27539,7 +28453,9 @@
       <c r="R460">
         <v>0</v>
       </c>
-      <c r="S460" s="1"/>
+      <c r="S460" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
@@ -27561,7 +28477,7 @@
         <v>229</v>
       </c>
       <c r="G461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H461">
         <v>0</v>
@@ -27596,7 +28512,9 @@
       <c r="R461">
         <v>3</v>
       </c>
-      <c r="S461" s="1"/>
+      <c r="S461" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
@@ -27653,7 +28571,9 @@
       <c r="R462">
         <v>0</v>
       </c>
-      <c r="S462" s="1"/>
+      <c r="S462" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
@@ -27710,7 +28630,9 @@
       <c r="R463">
         <v>0</v>
       </c>
-      <c r="S463" s="1"/>
+      <c r="S463" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
@@ -27732,7 +28654,7 @@
         <v>130</v>
       </c>
       <c r="G464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H464">
         <v>0</v>
@@ -27767,7 +28689,9 @@
       <c r="R464">
         <v>0</v>
       </c>
-      <c r="S464" s="1"/>
+      <c r="S464" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
@@ -27789,7 +28713,7 @@
         <v>69</v>
       </c>
       <c r="G465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H465">
         <v>0</v>
@@ -27824,7 +28748,9 @@
       <c r="R465">
         <v>3</v>
       </c>
-      <c r="S465" s="1"/>
+      <c r="S465" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
@@ -27846,7 +28772,7 @@
         <v>25</v>
       </c>
       <c r="G466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H466">
         <v>0</v>
@@ -27881,7 +28807,9 @@
       <c r="R466">
         <v>0</v>
       </c>
-      <c r="S466" s="1"/>
+      <c r="S466" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
@@ -27903,7 +28831,7 @@
         <v>10</v>
       </c>
       <c r="G467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H467">
         <v>0</v>
@@ -27938,7 +28866,9 @@
       <c r="R467">
         <v>0</v>
       </c>
-      <c r="S467" s="1"/>
+      <c r="S467" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
@@ -27995,7 +28925,9 @@
       <c r="R468">
         <v>1</v>
       </c>
-      <c r="S468" s="1"/>
+      <c r="S468" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
@@ -28052,7 +28984,9 @@
       <c r="R469">
         <v>0</v>
       </c>
-      <c r="S469" s="1"/>
+      <c r="S469" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
@@ -28109,7 +29043,9 @@
       <c r="R470">
         <v>1</v>
       </c>
-      <c r="S470" s="1"/>
+      <c r="S470" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
@@ -28131,7 +29067,7 @@
         <v>233</v>
       </c>
       <c r="G471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H471">
         <v>0</v>
@@ -28166,7 +29102,9 @@
       <c r="R471">
         <v>1</v>
       </c>
-      <c r="S471" s="1"/>
+      <c r="S471" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
@@ -28223,7 +29161,9 @@
       <c r="R472">
         <v>0</v>
       </c>
-      <c r="S472" s="1"/>
+      <c r="S472" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
@@ -28280,7 +29220,9 @@
       <c r="R473">
         <v>0</v>
       </c>
-      <c r="S473" s="1"/>
+      <c r="S473" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
@@ -28337,7 +29279,9 @@
       <c r="R474">
         <v>0</v>
       </c>
-      <c r="S474" s="1"/>
+      <c r="S474" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
@@ -28359,7 +29303,7 @@
         <v>233</v>
       </c>
       <c r="G475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H475">
         <v>0</v>
@@ -28394,7 +29338,9 @@
       <c r="R475">
         <v>2</v>
       </c>
-      <c r="S475" s="1"/>
+      <c r="S475" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
@@ -28451,7 +29397,9 @@
       <c r="R476">
         <v>2</v>
       </c>
-      <c r="S476" s="1"/>
+      <c r="S476" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
@@ -28508,7 +29456,9 @@
       <c r="R477">
         <v>0</v>
       </c>
-      <c r="S477" s="1"/>
+      <c r="S477" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
@@ -28565,7 +29515,9 @@
       <c r="R478">
         <v>0</v>
       </c>
-      <c r="S478" s="1"/>
+      <c r="S478" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
@@ -28622,7 +29574,9 @@
       <c r="R479">
         <v>1</v>
       </c>
-      <c r="S479" s="1"/>
+      <c r="S479" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
@@ -28679,7 +29633,9 @@
       <c r="R480">
         <v>1</v>
       </c>
-      <c r="S480" s="1"/>
+      <c r="S480" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
@@ -28701,7 +29657,7 @@
         <v>235</v>
       </c>
       <c r="G481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H481">
         <v>0</v>
@@ -28736,7 +29692,9 @@
       <c r="R481">
         <v>1</v>
       </c>
-      <c r="S481" s="1"/>
+      <c r="S481" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
@@ -28793,7 +29751,9 @@
       <c r="R482">
         <v>2</v>
       </c>
-      <c r="S482" s="1"/>
+      <c r="S482" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
@@ -28815,7 +29775,7 @@
         <v>236</v>
       </c>
       <c r="G483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H483">
         <v>0</v>
@@ -28850,7 +29810,9 @@
       <c r="R483">
         <v>3</v>
       </c>
-      <c r="S483" s="1"/>
+      <c r="S483" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
@@ -28872,7 +29834,7 @@
         <v>237</v>
       </c>
       <c r="G484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H484">
         <v>0</v>
@@ -28907,7 +29869,9 @@
       <c r="R484">
         <v>2</v>
       </c>
-      <c r="S484" s="1"/>
+      <c r="S484" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
@@ -28964,7 +29928,9 @@
       <c r="R485">
         <v>5</v>
       </c>
-      <c r="S485" s="1"/>
+      <c r="S485" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
@@ -29021,7 +29987,9 @@
       <c r="R486">
         <v>0</v>
       </c>
-      <c r="S486" s="1"/>
+      <c r="S486" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
@@ -29043,7 +30011,7 @@
         <v>134</v>
       </c>
       <c r="G487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H487">
         <v>0</v>
@@ -29078,7 +30046,9 @@
       <c r="R487">
         <v>0</v>
       </c>
-      <c r="S487" s="1"/>
+      <c r="S487" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
@@ -29135,7 +30105,9 @@
       <c r="R488">
         <v>2</v>
       </c>
-      <c r="S488" s="1"/>
+      <c r="S488" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
@@ -29192,7 +30164,9 @@
       <c r="R489">
         <v>0</v>
       </c>
-      <c r="S489" s="1"/>
+      <c r="S489" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
@@ -29249,7 +30223,9 @@
       <c r="R490">
         <v>4</v>
       </c>
-      <c r="S490" s="1"/>
+      <c r="S490" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
@@ -29271,7 +30247,7 @@
         <v>22</v>
       </c>
       <c r="G491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H491">
         <v>0</v>
@@ -29306,7 +30282,9 @@
       <c r="R491">
         <v>2</v>
       </c>
-      <c r="S491" s="1"/>
+      <c r="S491" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
@@ -29328,7 +30306,7 @@
         <v>22</v>
       </c>
       <c r="G492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H492">
         <v>0</v>
@@ -29363,7 +30341,9 @@
       <c r="R492">
         <v>3</v>
       </c>
-      <c r="S492" s="1"/>
+      <c r="S492" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
@@ -29420,7 +30400,9 @@
       <c r="R493">
         <v>0</v>
       </c>
-      <c r="S493" s="1"/>
+      <c r="S493" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
@@ -29477,7 +30459,9 @@
       <c r="R494">
         <v>0</v>
       </c>
-      <c r="S494" s="1"/>
+      <c r="S494" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
@@ -29499,7 +30483,7 @@
         <v>22</v>
       </c>
       <c r="G495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H495">
         <v>0</v>
@@ -29534,7 +30518,9 @@
       <c r="R495">
         <v>2</v>
       </c>
-      <c r="S495" s="1"/>
+      <c r="S495" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
@@ -29591,7 +30577,9 @@
       <c r="R496">
         <v>4</v>
       </c>
-      <c r="S496" s="1"/>
+      <c r="S496" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
@@ -29648,7 +30636,9 @@
       <c r="R497">
         <v>3</v>
       </c>
-      <c r="S497" s="1"/>
+      <c r="S497" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
@@ -29705,7 +30695,9 @@
       <c r="R498">
         <v>1</v>
       </c>
-      <c r="S498" s="1"/>
+      <c r="S498" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
@@ -29762,7 +30754,9 @@
       <c r="R499">
         <v>2</v>
       </c>
-      <c r="S499" s="1"/>
+      <c r="S499" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
@@ -29819,7 +30813,9 @@
       <c r="R500">
         <v>0</v>
       </c>
-      <c r="S500" s="1"/>
+      <c r="S500" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
@@ -29876,7 +30872,9 @@
       <c r="R501">
         <v>0</v>
       </c>
-      <c r="S501" s="1"/>
+      <c r="S501" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
@@ -29933,7 +30931,9 @@
       <c r="R502">
         <v>0</v>
       </c>
-      <c r="S502" s="1"/>
+      <c r="S502" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
@@ -29990,7 +30990,9 @@
       <c r="R503">
         <v>0</v>
       </c>
-      <c r="S503" s="1"/>
+      <c r="S503" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
@@ -30047,7 +31049,9 @@
       <c r="R504">
         <v>3</v>
       </c>
-      <c r="S504" s="1"/>
+      <c r="S504" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
@@ -30104,7 +31108,9 @@
       <c r="R505">
         <v>2</v>
       </c>
-      <c r="S505" s="1"/>
+      <c r="S505" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
@@ -30161,7 +31167,9 @@
       <c r="R506">
         <v>0</v>
       </c>
-      <c r="S506" s="1"/>
+      <c r="S506" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
@@ -30218,7 +31226,9 @@
       <c r="R507">
         <v>1</v>
       </c>
-      <c r="S507" s="1"/>
+      <c r="S507" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
@@ -30275,7 +31285,9 @@
       <c r="R508">
         <v>0</v>
       </c>
-      <c r="S508" s="1"/>
+      <c r="S508" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
@@ -30332,7 +31344,9 @@
       <c r="R509">
         <v>0</v>
       </c>
-      <c r="S509" s="1"/>
+      <c r="S509" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
@@ -30389,7 +31403,9 @@
       <c r="R510">
         <v>0</v>
       </c>
-      <c r="S510" s="1"/>
+      <c r="S510" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
@@ -30446,7 +31462,9 @@
       <c r="R511">
         <v>2</v>
       </c>
-      <c r="S511" s="1"/>
+      <c r="S511" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
@@ -30503,7 +31521,9 @@
       <c r="R512">
         <v>2</v>
       </c>
-      <c r="S512" s="1"/>
+      <c r="S512" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
@@ -30525,7 +31545,7 @@
         <v>22</v>
       </c>
       <c r="G513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H513">
         <v>0</v>
@@ -30560,7 +31580,9 @@
       <c r="R513">
         <v>2</v>
       </c>
-      <c r="S513" s="1"/>
+      <c r="S513" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
@@ -30617,7 +31639,9 @@
       <c r="R514">
         <v>0</v>
       </c>
-      <c r="S514" s="1"/>
+      <c r="S514" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
@@ -30674,7 +31698,9 @@
       <c r="R515">
         <v>3</v>
       </c>
-      <c r="S515" s="1"/>
+      <c r="S515" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
@@ -30696,7 +31722,7 @@
         <v>22</v>
       </c>
       <c r="G516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H516">
         <v>0</v>
@@ -30731,7 +31757,9 @@
       <c r="R516">
         <v>0</v>
       </c>
-      <c r="S516" s="1"/>
+      <c r="S516" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
@@ -30788,7 +31816,9 @@
       <c r="R517">
         <v>0</v>
       </c>
-      <c r="S517" s="1"/>
+      <c r="S517" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
@@ -30845,7 +31875,9 @@
       <c r="R518">
         <v>2</v>
       </c>
-      <c r="S518" s="1"/>
+      <c r="S518" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
@@ -30902,7 +31934,9 @@
       <c r="R519">
         <v>0</v>
       </c>
-      <c r="S519" s="1"/>
+      <c r="S519" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
@@ -30959,7 +31993,9 @@
       <c r="R520">
         <v>0</v>
       </c>
-      <c r="S520" s="1"/>
+      <c r="S520" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
@@ -31016,7 +32052,9 @@
       <c r="R521">
         <v>0</v>
       </c>
-      <c r="S521" s="1"/>
+      <c r="S521" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
@@ -31038,7 +32076,7 @@
         <v>247</v>
       </c>
       <c r="G522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H522">
         <v>0</v>
@@ -31073,7 +32111,9 @@
       <c r="R522">
         <v>2</v>
       </c>
-      <c r="S522" s="1"/>
+      <c r="S522" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
@@ -31130,7 +32170,9 @@
       <c r="R523">
         <v>4</v>
       </c>
-      <c r="S523" s="1"/>
+      <c r="S523" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
@@ -31152,7 +32194,7 @@
         <v>248</v>
       </c>
       <c r="G524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H524">
         <v>0</v>
@@ -31187,7 +32229,9 @@
       <c r="R524">
         <v>4</v>
       </c>
-      <c r="S524" s="1"/>
+      <c r="S524" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
@@ -31209,7 +32253,7 @@
         <v>40</v>
       </c>
       <c r="G525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H525">
         <v>0</v>
@@ -31244,7 +32288,9 @@
       <c r="R525">
         <v>0</v>
       </c>
-      <c r="S525" s="1"/>
+      <c r="S525" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
@@ -31301,7 +32347,9 @@
       <c r="R526">
         <v>2</v>
       </c>
-      <c r="S526" s="1"/>
+      <c r="S526" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
@@ -31358,7 +32406,9 @@
       <c r="R527">
         <v>0</v>
       </c>
-      <c r="S527" s="1"/>
+      <c r="S527" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
@@ -31415,7 +32465,9 @@
       <c r="R528">
         <v>0</v>
       </c>
-      <c r="S528" s="1"/>
+      <c r="S528" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="529" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
@@ -31472,7 +32524,9 @@
       <c r="R529">
         <v>1</v>
       </c>
-      <c r="S529" s="1"/>
+      <c r="S529" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
@@ -31529,7 +32583,9 @@
       <c r="R530">
         <v>2</v>
       </c>
-      <c r="S530" s="1"/>
+      <c r="S530" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
@@ -31551,7 +32607,7 @@
         <v>236</v>
       </c>
       <c r="G531">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H531">
         <v>0</v>
@@ -31586,7 +32642,9 @@
       <c r="R531">
         <v>0</v>
       </c>
-      <c r="S531" s="1"/>
+      <c r="S531" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
@@ -31608,7 +32666,7 @@
         <v>249</v>
       </c>
       <c r="G532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H532">
         <v>0</v>
@@ -31643,7 +32701,9 @@
       <c r="R532">
         <v>0</v>
       </c>
-      <c r="S532" s="1"/>
+      <c r="S532" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
@@ -31700,7 +32760,9 @@
       <c r="R533">
         <v>3</v>
       </c>
-      <c r="S533" s="1"/>
+      <c r="S533" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
@@ -31757,7 +32819,9 @@
       <c r="R534">
         <v>0</v>
       </c>
-      <c r="S534" s="1"/>
+      <c r="S534" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="535" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
@@ -31779,7 +32843,7 @@
         <v>229</v>
       </c>
       <c r="G535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H535">
         <v>0</v>
@@ -31814,7 +32878,9 @@
       <c r="R535">
         <v>0</v>
       </c>
-      <c r="S535" s="1"/>
+      <c r="S535" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="536" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
@@ -31871,7 +32937,9 @@
       <c r="R536">
         <v>0</v>
       </c>
-      <c r="S536" s="1"/>
+      <c r="S536" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="537" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
@@ -31893,7 +32961,7 @@
         <v>22</v>
       </c>
       <c r="G537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H537">
         <v>0</v>
@@ -31928,7 +32996,9 @@
       <c r="R537">
         <v>4</v>
       </c>
-      <c r="S537" s="1"/>
+      <c r="S537" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="538" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
@@ -31985,7 +33055,9 @@
       <c r="R538">
         <v>0</v>
       </c>
-      <c r="S538" s="1"/>
+      <c r="S538" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="539" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
@@ -32007,7 +33079,7 @@
         <v>25</v>
       </c>
       <c r="G539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H539">
         <v>0</v>
@@ -32042,7 +33114,9 @@
       <c r="R539">
         <v>1</v>
       </c>
-      <c r="S539" s="1"/>
+      <c r="S539" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="540" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
@@ -32099,7 +33173,9 @@
       <c r="R540">
         <v>3</v>
       </c>
-      <c r="S540" s="1"/>
+      <c r="S540" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="541" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
@@ -32156,7 +33232,9 @@
       <c r="R541">
         <v>1</v>
       </c>
-      <c r="S541" s="1"/>
+      <c r="S541" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="542" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
@@ -32213,7 +33291,9 @@
       <c r="R542">
         <v>0</v>
       </c>
-      <c r="S542" s="1"/>
+      <c r="S542" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="543" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
@@ -32270,7 +33350,9 @@
       <c r="R543">
         <v>0</v>
       </c>
-      <c r="S543" s="1"/>
+      <c r="S543" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
@@ -32327,7 +33409,9 @@
       <c r="R544">
         <v>3</v>
       </c>
-      <c r="S544" s="1"/>
+      <c r="S544" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
@@ -32384,7 +33468,9 @@
       <c r="R545">
         <v>1</v>
       </c>
-      <c r="S545" s="1"/>
+      <c r="S545" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
@@ -32406,7 +33492,7 @@
         <v>188</v>
       </c>
       <c r="G546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H546">
         <v>0</v>
@@ -32441,7 +33527,9 @@
       <c r="R546">
         <v>3</v>
       </c>
-      <c r="S546" s="1"/>
+      <c r="S546" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="547" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
@@ -32498,7 +33586,9 @@
       <c r="R547">
         <v>2</v>
       </c>
-      <c r="S547" s="1"/>
+      <c r="S547" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
@@ -32520,7 +33610,7 @@
         <v>134</v>
       </c>
       <c r="G548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H548">
         <v>0</v>
@@ -32555,7 +33645,9 @@
       <c r="R548">
         <v>1</v>
       </c>
-      <c r="S548" s="1"/>
+      <c r="S548" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="549" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
@@ -32577,7 +33669,7 @@
         <v>134</v>
       </c>
       <c r="G549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H549">
         <v>0</v>
@@ -32612,7 +33704,9 @@
       <c r="R549">
         <v>0</v>
       </c>
-      <c r="S549" s="1"/>
+      <c r="S549" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
@@ -32669,7 +33763,9 @@
       <c r="R550">
         <v>1</v>
       </c>
-      <c r="S550" s="1"/>
+      <c r="S550" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="551" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
@@ -32726,7 +33822,9 @@
       <c r="R551">
         <v>0</v>
       </c>
-      <c r="S551" s="1"/>
+      <c r="S551" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
@@ -32783,7 +33881,9 @@
       <c r="R552">
         <v>0</v>
       </c>
-      <c r="S552" s="1"/>
+      <c r="S552" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="553" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
@@ -32840,7 +33940,9 @@
       <c r="R553">
         <v>3</v>
       </c>
-      <c r="S553" s="1"/>
+      <c r="S553" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
@@ -32862,7 +33964,7 @@
         <v>10</v>
       </c>
       <c r="G554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H554">
         <v>0</v>
@@ -32897,7 +33999,9 @@
       <c r="R554">
         <v>0</v>
       </c>
-      <c r="S554" s="1"/>
+      <c r="S554" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="555" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
@@ -32954,7 +34058,9 @@
       <c r="R555">
         <v>0</v>
       </c>
-      <c r="S555" s="1"/>
+      <c r="S555" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
@@ -33011,7 +34117,9 @@
       <c r="R556">
         <v>0</v>
       </c>
-      <c r="S556" s="1"/>
+      <c r="S556" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
@@ -33068,7 +34176,9 @@
       <c r="R557">
         <v>0</v>
       </c>
-      <c r="S557" s="1"/>
+      <c r="S557" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="558" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
@@ -33090,7 +34200,7 @@
         <v>22</v>
       </c>
       <c r="G558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H558">
         <v>0</v>
@@ -33125,7 +34235,9 @@
       <c r="R558">
         <v>0</v>
       </c>
-      <c r="S558" s="1"/>
+      <c r="S558" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="559" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
@@ -33147,7 +34259,7 @@
         <v>225</v>
       </c>
       <c r="G559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H559">
         <v>0</v>
@@ -33182,7 +34294,9 @@
       <c r="R559">
         <v>2</v>
       </c>
-      <c r="S559" s="1"/>
+      <c r="S559" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="560" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
@@ -33239,7 +34353,9 @@
       <c r="R560">
         <v>0</v>
       </c>
-      <c r="S560" s="1"/>
+      <c r="S560" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="561" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
@@ -33296,7 +34412,9 @@
       <c r="R561">
         <v>2</v>
       </c>
-      <c r="S561" s="1"/>
+      <c r="S561" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="562" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
@@ -33353,7 +34471,9 @@
       <c r="R562">
         <v>3</v>
       </c>
-      <c r="S562" s="1"/>
+      <c r="S562" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="563" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
@@ -33410,7 +34530,9 @@
       <c r="R563">
         <v>1</v>
       </c>
-      <c r="S563" s="1"/>
+      <c r="S563" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="564" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
@@ -33467,7 +34589,9 @@
       <c r="R564">
         <v>1</v>
       </c>
-      <c r="S564" s="1"/>
+      <c r="S564" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="565" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
@@ -33524,7 +34648,9 @@
       <c r="R565">
         <v>2</v>
       </c>
-      <c r="S565" s="1"/>
+      <c r="S565" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
@@ -33581,7 +34707,9 @@
       <c r="R566">
         <v>0</v>
       </c>
-      <c r="S566" s="1"/>
+      <c r="S566" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="567" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
@@ -33603,7 +34731,7 @@
         <v>22</v>
       </c>
       <c r="G567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H567">
         <v>0</v>
@@ -33638,7 +34766,9 @@
       <c r="R567">
         <v>1</v>
       </c>
-      <c r="S567" s="1"/>
+      <c r="S567" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
@@ -33660,7 +34790,7 @@
         <v>134</v>
       </c>
       <c r="G568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H568">
         <v>0</v>
@@ -33695,7 +34825,9 @@
       <c r="R568">
         <v>5</v>
       </c>
-      <c r="S568" s="1"/>
+      <c r="S568" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
@@ -33752,7 +34884,9 @@
       <c r="R569">
         <v>0</v>
       </c>
-      <c r="S569" s="1"/>
+      <c r="S569" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
@@ -33809,7 +34943,9 @@
       <c r="R570">
         <v>1</v>
       </c>
-      <c r="S570" s="1"/>
+      <c r="S570" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
@@ -33866,7 +35002,9 @@
       <c r="R571">
         <v>2</v>
       </c>
-      <c r="S571" s="1"/>
+      <c r="S571" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
@@ -33888,7 +35026,7 @@
         <v>83</v>
       </c>
       <c r="G572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H572">
         <v>0</v>
@@ -33923,7 +35061,9 @@
       <c r="R572">
         <v>0</v>
       </c>
-      <c r="S572" s="1"/>
+      <c r="S572" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
@@ -33980,7 +35120,9 @@
       <c r="R573">
         <v>0</v>
       </c>
-      <c r="S573" s="1"/>
+      <c r="S573" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="574" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
@@ -34037,7 +35179,9 @@
       <c r="R574">
         <v>2</v>
       </c>
-      <c r="S574" s="1"/>
+      <c r="S574" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="575" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
@@ -34094,7 +35238,9 @@
       <c r="R575">
         <v>1</v>
       </c>
-      <c r="S575" s="1"/>
+      <c r="S575" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
@@ -34151,7 +35297,9 @@
       <c r="R576">
         <v>2</v>
       </c>
-      <c r="S576" s="1"/>
+      <c r="S576" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="577" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
@@ -34173,7 +35321,7 @@
         <v>236</v>
       </c>
       <c r="G577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H577">
         <v>0</v>
@@ -34208,7 +35356,9 @@
       <c r="R577">
         <v>0</v>
       </c>
-      <c r="S577" s="1"/>
+      <c r="S577" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="578" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
@@ -34230,7 +35380,7 @@
         <v>156</v>
       </c>
       <c r="G578">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H578">
         <v>0</v>
@@ -34265,7 +35415,9 @@
       <c r="R578">
         <v>1</v>
       </c>
-      <c r="S578" s="1"/>
+      <c r="S578" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="579" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
@@ -34322,7 +35474,9 @@
       <c r="R579">
         <v>0</v>
       </c>
-      <c r="S579" s="1"/>
+      <c r="S579" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
@@ -34379,7 +35533,9 @@
       <c r="R580">
         <v>0</v>
       </c>
-      <c r="S580" s="1"/>
+      <c r="S580" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
@@ -34436,7 +35592,9 @@
       <c r="R581">
         <v>0</v>
       </c>
-      <c r="S581" s="1"/>
+      <c r="S581" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="582" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
@@ -34458,7 +35616,7 @@
         <v>83</v>
       </c>
       <c r="G582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H582">
         <v>0</v>
@@ -34493,7 +35651,9 @@
       <c r="R582">
         <v>3</v>
       </c>
-      <c r="S582" s="1"/>
+      <c r="S582" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="583" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
@@ -34550,7 +35710,9 @@
       <c r="R583">
         <v>0</v>
       </c>
-      <c r="S583" s="1"/>
+      <c r="S583" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="584" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
@@ -34607,7 +35769,9 @@
       <c r="R584">
         <v>0</v>
       </c>
-      <c r="S584" s="1"/>
+      <c r="S584" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="585" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
@@ -34629,7 +35793,7 @@
         <v>258</v>
       </c>
       <c r="G585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H585">
         <v>1</v>
@@ -34664,7 +35828,9 @@
       <c r="R585">
         <v>0</v>
       </c>
-      <c r="S585" s="1"/>
+      <c r="S585" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="586" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
@@ -34686,7 +35852,7 @@
         <v>40</v>
       </c>
       <c r="G586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H586">
         <v>0</v>
@@ -34721,7 +35887,9 @@
       <c r="R586">
         <v>0</v>
       </c>
-      <c r="S586" s="1"/>
+      <c r="S586" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="587" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
@@ -34778,7 +35946,9 @@
       <c r="R587">
         <v>0</v>
       </c>
-      <c r="S587" s="1"/>
+      <c r="S587" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="588" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
@@ -34835,7 +36005,9 @@
       <c r="R588">
         <v>0</v>
       </c>
-      <c r="S588" s="1"/>
+      <c r="S588" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="589" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
@@ -34892,7 +36064,9 @@
       <c r="R589">
         <v>4</v>
       </c>
-      <c r="S589" s="1"/>
+      <c r="S589" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="590" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
@@ -34949,7 +36123,9 @@
       <c r="R590">
         <v>0</v>
       </c>
-      <c r="S590" s="1"/>
+      <c r="S590" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="591" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
@@ -35006,7 +36182,9 @@
       <c r="R591">
         <v>0</v>
       </c>
-      <c r="S591" s="1"/>
+      <c r="S591" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="592" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
@@ -35028,7 +36206,7 @@
         <v>124</v>
       </c>
       <c r="G592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H592">
         <v>0</v>
@@ -35063,7 +36241,9 @@
       <c r="R592">
         <v>1</v>
       </c>
-      <c r="S592" s="1"/>
+      <c r="S592" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="593" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
@@ -35120,7 +36300,9 @@
       <c r="R593">
         <v>0</v>
       </c>
-      <c r="S593" s="1"/>
+      <c r="S593" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="594" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
@@ -35177,7 +36359,9 @@
       <c r="R594">
         <v>3</v>
       </c>
-      <c r="S594" s="1"/>
+      <c r="S594" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="595" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
@@ -35234,7 +36418,9 @@
       <c r="R595">
         <v>3</v>
       </c>
-      <c r="S595" s="1"/>
+      <c r="S595" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="596" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
@@ -35291,7 +36477,9 @@
       <c r="R596">
         <v>2</v>
       </c>
-      <c r="S596" s="1"/>
+      <c r="S596" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="597" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
@@ -35348,7 +36536,9 @@
       <c r="R597">
         <v>2</v>
       </c>
-      <c r="S597" s="1"/>
+      <c r="S597" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="598" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
@@ -35370,7 +36560,7 @@
         <v>127</v>
       </c>
       <c r="G598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H598">
         <v>0</v>
@@ -35405,7 +36595,9 @@
       <c r="R598">
         <v>2</v>
       </c>
-      <c r="S598" s="1"/>
+      <c r="S598" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="599" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
@@ -35427,7 +36619,7 @@
         <v>40</v>
       </c>
       <c r="G599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H599">
         <v>0</v>
@@ -35462,7 +36654,9 @@
       <c r="R599">
         <v>3</v>
       </c>
-      <c r="S599" s="1"/>
+      <c r="S599" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="600" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
@@ -35519,7 +36713,9 @@
       <c r="R600">
         <v>0</v>
       </c>
-      <c r="S600" s="1"/>
+      <c r="S600" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="601" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
@@ -35576,7 +36772,9 @@
       <c r="R601">
         <v>0</v>
       </c>
-      <c r="S601" s="1"/>
+      <c r="S601" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="602" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
@@ -35598,7 +36796,7 @@
         <v>229</v>
       </c>
       <c r="G602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H602">
         <v>0</v>
@@ -35633,7 +36831,9 @@
       <c r="R602">
         <v>3</v>
       </c>
-      <c r="S602" s="1"/>
+      <c r="S602" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="603" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
@@ -35655,7 +36855,7 @@
         <v>236</v>
       </c>
       <c r="G603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H603">
         <v>0</v>
@@ -35690,7 +36890,9 @@
       <c r="R603">
         <v>0</v>
       </c>
-      <c r="S603" s="1"/>
+      <c r="S603" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="604" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
@@ -35712,7 +36914,7 @@
         <v>33</v>
       </c>
       <c r="G604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H604">
         <v>0</v>
@@ -35747,7 +36949,9 @@
       <c r="R604">
         <v>0</v>
       </c>
-      <c r="S604" s="1"/>
+      <c r="S604" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="605" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
@@ -35804,7 +37008,9 @@
       <c r="R605">
         <v>0</v>
       </c>
-      <c r="S605" s="1"/>
+      <c r="S605" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="606" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
@@ -35861,7 +37067,9 @@
       <c r="R606">
         <v>2</v>
       </c>
-      <c r="S606" s="1"/>
+      <c r="S606" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="607" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
@@ -35918,7 +37126,9 @@
       <c r="R607">
         <v>0</v>
       </c>
-      <c r="S607" s="1"/>
+      <c r="S607" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="608" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
@@ -35940,7 +37150,7 @@
         <v>22</v>
       </c>
       <c r="G608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H608">
         <v>0</v>
@@ -35975,7 +37185,9 @@
       <c r="R608">
         <v>2</v>
       </c>
-      <c r="S608" s="1"/>
+      <c r="S608" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="609" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
@@ -35997,7 +37209,7 @@
         <v>42</v>
       </c>
       <c r="G609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H609">
         <v>0</v>
@@ -36032,7 +37244,9 @@
       <c r="R609">
         <v>0</v>
       </c>
-      <c r="S609" s="1"/>
+      <c r="S609" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="610" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
@@ -36089,7 +37303,9 @@
       <c r="R610">
         <v>0</v>
       </c>
-      <c r="S610" s="1"/>
+      <c r="S610" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="611" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
@@ -36146,7 +37362,9 @@
       <c r="R611">
         <v>2</v>
       </c>
-      <c r="S611" s="1"/>
+      <c r="S611" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="612" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
@@ -36203,7 +37421,9 @@
       <c r="R612">
         <v>0</v>
       </c>
-      <c r="S612" s="1"/>
+      <c r="S612" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="613" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
@@ -36260,7 +37480,9 @@
       <c r="R613">
         <v>0</v>
       </c>
-      <c r="S613" s="1"/>
+      <c r="S613" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="614" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
@@ -36317,7 +37539,9 @@
       <c r="R614">
         <v>2</v>
       </c>
-      <c r="S614" s="1"/>
+      <c r="S614" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="615" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
@@ -36374,7 +37598,9 @@
       <c r="R615">
         <v>0</v>
       </c>
-      <c r="S615" s="1"/>
+      <c r="S615" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="616" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
@@ -36431,7 +37657,9 @@
       <c r="R616">
         <v>0</v>
       </c>
-      <c r="S616" s="1"/>
+      <c r="S616" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="617" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
@@ -36488,7 +37716,9 @@
       <c r="R617">
         <v>0</v>
       </c>
-      <c r="S617" s="1"/>
+      <c r="S617" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="618" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
@@ -36545,7 +37775,9 @@
       <c r="R618">
         <v>0</v>
       </c>
-      <c r="S618" s="1"/>
+      <c r="S618" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="619" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
@@ -36567,7 +37799,7 @@
         <v>168</v>
       </c>
       <c r="G619">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H619">
         <v>0</v>
@@ -36602,7 +37834,9 @@
       <c r="R619">
         <v>2</v>
       </c>
-      <c r="S619" s="1"/>
+      <c r="S619" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="620" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
@@ -36624,7 +37858,7 @@
         <v>10</v>
       </c>
       <c r="G620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H620">
         <v>0</v>
@@ -36659,7 +37893,9 @@
       <c r="R620">
         <v>3</v>
       </c>
-      <c r="S620" s="1"/>
+      <c r="S620" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="621" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
@@ -36716,7 +37952,9 @@
       <c r="R621">
         <v>0</v>
       </c>
-      <c r="S621" s="1"/>
+      <c r="S621" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="622" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
@@ -36773,7 +38011,9 @@
       <c r="R622">
         <v>0</v>
       </c>
-      <c r="S622" s="1"/>
+      <c r="S622" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="623" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
@@ -36830,7 +38070,9 @@
       <c r="R623">
         <v>0</v>
       </c>
-      <c r="S623" s="1"/>
+      <c r="S623" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="624" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
@@ -36887,7 +38129,9 @@
       <c r="R624">
         <v>0</v>
       </c>
-      <c r="S624" s="1"/>
+      <c r="S624" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="625" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
@@ -36944,7 +38188,9 @@
       <c r="R625">
         <v>1</v>
       </c>
-      <c r="S625" s="1"/>
+      <c r="S625" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="626" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
@@ -37001,7 +38247,9 @@
       <c r="R626">
         <v>0</v>
       </c>
-      <c r="S626" s="1"/>
+      <c r="S626" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="627" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
@@ -37023,7 +38271,7 @@
         <v>264</v>
       </c>
       <c r="G627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H627">
         <v>0</v>
@@ -37058,7 +38306,9 @@
       <c r="R627">
         <v>0</v>
       </c>
-      <c r="S627" s="1"/>
+      <c r="S627" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="628" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
@@ -37080,7 +38330,7 @@
         <v>236</v>
       </c>
       <c r="G628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H628">
         <v>0</v>
@@ -37115,7 +38365,9 @@
       <c r="R628">
         <v>0</v>
       </c>
-      <c r="S628" s="1"/>
+      <c r="S628" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="629" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
@@ -37172,7 +38424,9 @@
       <c r="R629">
         <v>1</v>
       </c>
-      <c r="S629" s="1"/>
+      <c r="S629" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="630" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
@@ -37229,7 +38483,9 @@
       <c r="R630">
         <v>3</v>
       </c>
-      <c r="S630" s="1"/>
+      <c r="S630" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="631" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
@@ -37286,7 +38542,9 @@
       <c r="R631">
         <v>2</v>
       </c>
-      <c r="S631" s="1"/>
+      <c r="S631" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="632" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
@@ -37343,7 +38601,9 @@
       <c r="R632">
         <v>2</v>
       </c>
-      <c r="S632" s="1"/>
+      <c r="S632" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="633" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
@@ -37400,7 +38660,9 @@
       <c r="R633">
         <v>2</v>
       </c>
-      <c r="S633" s="1"/>
+      <c r="S633" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="634" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
@@ -37422,7 +38684,7 @@
         <v>134</v>
       </c>
       <c r="G634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H634">
         <v>0</v>
@@ -37457,7 +38719,9 @@
       <c r="R634">
         <v>0</v>
       </c>
-      <c r="S634" s="1"/>
+      <c r="S634" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="635" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
@@ -37514,7 +38778,9 @@
       <c r="R635">
         <v>2</v>
       </c>
-      <c r="S635" s="1"/>
+      <c r="S635" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="636" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
@@ -37571,7 +38837,9 @@
       <c r="R636">
         <v>0</v>
       </c>
-      <c r="S636" s="1"/>
+      <c r="S636" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="637" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
@@ -37593,7 +38861,7 @@
         <v>229</v>
       </c>
       <c r="G637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H637">
         <v>0</v>
@@ -37628,7 +38896,9 @@
       <c r="R637">
         <v>0</v>
       </c>
-      <c r="S637" s="1"/>
+      <c r="S637" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="638" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
@@ -37650,7 +38920,7 @@
         <v>83</v>
       </c>
       <c r="G638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H638">
         <v>0</v>
@@ -37685,7 +38955,9 @@
       <c r="R638">
         <v>0</v>
       </c>
-      <c r="S638" s="1"/>
+      <c r="S638" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="639" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
@@ -37742,7 +39014,9 @@
       <c r="R639">
         <v>1</v>
       </c>
-      <c r="S639" s="1"/>
+      <c r="S639" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="640" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
@@ -37764,7 +39038,7 @@
         <v>22</v>
       </c>
       <c r="G640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H640">
         <v>0</v>
@@ -37799,7 +39073,9 @@
       <c r="R640">
         <v>1</v>
       </c>
-      <c r="S640" s="1"/>
+      <c r="S640" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="641" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
@@ -37856,7 +39132,9 @@
       <c r="R641">
         <v>3</v>
       </c>
-      <c r="S641" s="1"/>
+      <c r="S641" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="642" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
@@ -37913,7 +39191,9 @@
       <c r="R642">
         <v>0</v>
       </c>
-      <c r="S642" s="1"/>
+      <c r="S642" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="643" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
@@ -37970,7 +39250,9 @@
       <c r="R643">
         <v>0</v>
       </c>
-      <c r="S643" s="1"/>
+      <c r="S643" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="644" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
@@ -38027,7 +39309,9 @@
       <c r="R644">
         <v>1</v>
       </c>
-      <c r="S644" s="1"/>
+      <c r="S644" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="645" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
@@ -38049,7 +39333,7 @@
         <v>229</v>
       </c>
       <c r="G645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H645">
         <v>0</v>
@@ -38084,7 +39368,9 @@
       <c r="R645">
         <v>1</v>
       </c>
-      <c r="S645" s="1"/>
+      <c r="S645" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="646" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
@@ -38106,7 +39392,7 @@
         <v>229</v>
       </c>
       <c r="G646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H646">
         <v>0</v>
@@ -38141,7 +39427,9 @@
       <c r="R646">
         <v>2</v>
       </c>
-      <c r="S646" s="1"/>
+      <c r="S646" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="647" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
@@ -38198,7 +39486,9 @@
       <c r="R647">
         <v>0</v>
       </c>
-      <c r="S647" s="1"/>
+      <c r="S647" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="648" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
@@ -38220,7 +39510,7 @@
         <v>145</v>
       </c>
       <c r="G648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H648">
         <v>0</v>
@@ -38255,7 +39545,9 @@
       <c r="R648">
         <v>3</v>
       </c>
-      <c r="S648" s="1"/>
+      <c r="S648" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="649" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
@@ -38312,7 +39604,9 @@
       <c r="R649">
         <v>1</v>
       </c>
-      <c r="S649" s="1"/>
+      <c r="S649" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="650" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
@@ -38369,7 +39663,9 @@
       <c r="R650">
         <v>1</v>
       </c>
-      <c r="S650" s="1"/>
+      <c r="S650" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="651" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
@@ -38426,7 +39722,9 @@
       <c r="R651">
         <v>2</v>
       </c>
-      <c r="S651" s="1"/>
+      <c r="S651" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="652" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
@@ -38448,7 +39746,7 @@
         <v>74</v>
       </c>
       <c r="G652">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H652">
         <v>0</v>
@@ -38483,7 +39781,9 @@
       <c r="R652">
         <v>0</v>
       </c>
-      <c r="S652" s="1"/>
+      <c r="S652" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="653" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
@@ -38540,7 +39840,9 @@
       <c r="R653">
         <v>0</v>
       </c>
-      <c r="S653" s="1"/>
+      <c r="S653" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="654" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A654" s="2">
@@ -38597,7 +39899,9 @@
       <c r="R654">
         <v>0</v>
       </c>
-      <c r="S654" s="1"/>
+      <c r="S654" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="655" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
@@ -38619,7 +39923,7 @@
         <v>267</v>
       </c>
       <c r="G655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H655">
         <v>0</v>
@@ -38654,7 +39958,9 @@
       <c r="R655">
         <v>2</v>
       </c>
-      <c r="S655" s="1"/>
+      <c r="S655" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="656" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
@@ -38711,7 +40017,9 @@
       <c r="R656">
         <v>3</v>
       </c>
-      <c r="S656" s="1"/>
+      <c r="S656" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="657" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
@@ -38768,7 +40076,9 @@
       <c r="R657">
         <v>0</v>
       </c>
-      <c r="S657" s="1"/>
+      <c r="S657" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="658" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
@@ -38825,7 +40135,9 @@
       <c r="R658">
         <v>2</v>
       </c>
-      <c r="S658" s="1"/>
+      <c r="S658" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="659" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
@@ -38847,7 +40159,7 @@
         <v>83</v>
       </c>
       <c r="G659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H659">
         <v>0</v>
@@ -38882,7 +40194,9 @@
       <c r="R659">
         <v>0</v>
       </c>
-      <c r="S659" s="1"/>
+      <c r="S659" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="660" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
@@ -38939,7 +40253,9 @@
       <c r="R660">
         <v>0</v>
       </c>
-      <c r="S660" s="1"/>
+      <c r="S660" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="661" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
@@ -38996,7 +40312,9 @@
       <c r="R661">
         <v>2</v>
       </c>
-      <c r="S661" s="1"/>
+      <c r="S661" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="662" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
@@ -39053,7 +40371,9 @@
       <c r="R662">
         <v>1</v>
       </c>
-      <c r="S662" s="1"/>
+      <c r="S662" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="663" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
@@ -39110,7 +40430,9 @@
       <c r="R663">
         <v>1</v>
       </c>
-      <c r="S663" s="1"/>
+      <c r="S663" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="664" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
@@ -39167,7 +40489,9 @@
       <c r="R664">
         <v>0</v>
       </c>
-      <c r="S664" s="1"/>
+      <c r="S664" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="665" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
@@ -39224,7 +40548,9 @@
       <c r="R665">
         <v>0</v>
       </c>
-      <c r="S665" s="1"/>
+      <c r="S665" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="666" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
@@ -39281,7 +40607,9 @@
       <c r="R666">
         <v>0</v>
       </c>
-      <c r="S666" s="1"/>
+      <c r="S666" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="667" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
@@ -39338,7 +40666,9 @@
       <c r="R667">
         <v>2</v>
       </c>
-      <c r="S667" s="1"/>
+      <c r="S667" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="668" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
@@ -39360,7 +40690,7 @@
         <v>225</v>
       </c>
       <c r="G668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H668">
         <v>0</v>
@@ -39395,7 +40725,9 @@
       <c r="R668">
         <v>1</v>
       </c>
-      <c r="S668" s="1"/>
+      <c r="S668" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="669" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
@@ -39452,7 +40784,9 @@
       <c r="R669">
         <v>1</v>
       </c>
-      <c r="S669" s="1"/>
+      <c r="S669" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="670" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
@@ -39509,7 +40843,9 @@
       <c r="R670">
         <v>0</v>
       </c>
-      <c r="S670" s="1"/>
+      <c r="S670" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="671" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
@@ -39566,7 +40902,9 @@
       <c r="R671">
         <v>0</v>
       </c>
-      <c r="S671" s="1"/>
+      <c r="S671" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="672" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
@@ -39623,7 +40961,9 @@
       <c r="R672">
         <v>1</v>
       </c>
-      <c r="S672" s="1"/>
+      <c r="S672" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="673" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A673" s="2">
@@ -39680,7 +41020,9 @@
       <c r="R673">
         <v>0</v>
       </c>
-      <c r="S673" s="1"/>
+      <c r="S673" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="674" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A674" s="2">
@@ -39737,7 +41079,9 @@
       <c r="R674">
         <v>0</v>
       </c>
-      <c r="S674" s="1"/>
+      <c r="S674" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="675" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A675" s="2">
@@ -39794,7 +41138,9 @@
       <c r="R675">
         <v>0</v>
       </c>
-      <c r="S675" s="1"/>
+      <c r="S675" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="676" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A676" s="2">
@@ -39851,7 +41197,9 @@
       <c r="R676">
         <v>1</v>
       </c>
-      <c r="S676" s="1"/>
+      <c r="S676" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="677" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A677" s="2">
@@ -39908,7 +41256,9 @@
       <c r="R677">
         <v>0</v>
       </c>
-      <c r="S677" s="1"/>
+      <c r="S677" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="678" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A678" s="2">
@@ -39965,7 +41315,9 @@
       <c r="R678">
         <v>0</v>
       </c>
-      <c r="S678" s="1"/>
+      <c r="S678" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="679" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A679" s="2">
@@ -40022,7 +41374,9 @@
       <c r="R679">
         <v>0</v>
       </c>
-      <c r="S679" s="1"/>
+      <c r="S679" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="680" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A680" s="2">
@@ -40079,7 +41433,9 @@
       <c r="R680">
         <v>0</v>
       </c>
-      <c r="S680" s="1"/>
+      <c r="S680" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="681" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A681" s="2">
@@ -40136,7 +41492,9 @@
       <c r="R681">
         <v>2</v>
       </c>
-      <c r="S681" s="1"/>
+      <c r="S681" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="682" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A682" s="2">
@@ -40158,7 +41516,7 @@
         <v>258</v>
       </c>
       <c r="G682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H682">
         <v>1</v>
@@ -40193,7 +41551,9 @@
       <c r="R682">
         <v>0</v>
       </c>
-      <c r="S682" s="1"/>
+      <c r="S682" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="683" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A683" s="2">
@@ -40215,7 +41575,7 @@
         <v>33</v>
       </c>
       <c r="G683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H683">
         <v>0</v>
@@ -40250,7 +41610,9 @@
       <c r="R683">
         <v>0</v>
       </c>
-      <c r="S683" s="1"/>
+      <c r="S683" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="684" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A684" s="2">
@@ -40307,7 +41669,9 @@
       <c r="R684">
         <v>1</v>
       </c>
-      <c r="S684" s="1"/>
+      <c r="S684" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="685" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A685" s="2">
@@ -40329,7 +41693,7 @@
         <v>272</v>
       </c>
       <c r="G685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H685">
         <v>0</v>
@@ -40364,7 +41728,9 @@
       <c r="R685">
         <v>2</v>
       </c>
-      <c r="S685" s="1"/>
+      <c r="S685" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="686" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A686" s="2">
@@ -40421,7 +41787,9 @@
       <c r="R686">
         <v>0</v>
       </c>
-      <c r="S686" s="1"/>
+      <c r="S686" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="687" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A687" s="2">
@@ -40443,7 +41811,7 @@
         <v>258</v>
       </c>
       <c r="G687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H687">
         <v>1</v>
@@ -40478,7 +41846,9 @@
       <c r="R687">
         <v>0</v>
       </c>
-      <c r="S687" s="1"/>
+      <c r="S687" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="688" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A688" s="2">
@@ -40535,7 +41905,9 @@
       <c r="R688">
         <v>2</v>
       </c>
-      <c r="S688" s="1"/>
+      <c r="S688" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="689" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
@@ -40592,7 +41964,9 @@
       <c r="R689">
         <v>0</v>
       </c>
-      <c r="S689" s="1"/>
+      <c r="S689" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="690" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A690" s="2">
@@ -40649,7 +42023,9 @@
       <c r="R690">
         <v>0</v>
       </c>
-      <c r="S690" s="1"/>
+      <c r="S690" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="691" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
@@ -40706,7 +42082,9 @@
       <c r="R691">
         <v>1</v>
       </c>
-      <c r="S691" s="1"/>
+      <c r="S691" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="692" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
@@ -40728,7 +42106,7 @@
         <v>145</v>
       </c>
       <c r="G692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H692">
         <v>0</v>
@@ -40763,7 +42141,9 @@
       <c r="R692">
         <v>0</v>
       </c>
-      <c r="S692" s="1"/>
+      <c r="S692" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="693" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
@@ -40820,7 +42200,9 @@
       <c r="R693">
         <v>1</v>
       </c>
-      <c r="S693" s="1"/>
+      <c r="S693" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="694" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
@@ -40877,7 +42259,9 @@
       <c r="R694">
         <v>2</v>
       </c>
-      <c r="S694" s="1"/>
+      <c r="S694" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="695" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
@@ -40934,7 +42318,9 @@
       <c r="R695">
         <v>0</v>
       </c>
-      <c r="S695" s="1"/>
+      <c r="S695" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="696" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
@@ -40991,7 +42377,9 @@
       <c r="R696">
         <v>2</v>
       </c>
-      <c r="S696" s="1"/>
+      <c r="S696" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="697" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
@@ -41048,7 +42436,9 @@
       <c r="R697">
         <v>1</v>
       </c>
-      <c r="S697" s="1"/>
+      <c r="S697" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="698" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
@@ -41105,7 +42495,9 @@
       <c r="R698">
         <v>0</v>
       </c>
-      <c r="S698" s="1"/>
+      <c r="S698" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="699" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
@@ -41162,7 +42554,9 @@
       <c r="R699">
         <v>0</v>
       </c>
-      <c r="S699" s="1"/>
+      <c r="S699" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="700" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
@@ -41219,7 +42613,9 @@
       <c r="R700">
         <v>0</v>
       </c>
-      <c r="S700" s="1"/>
+      <c r="S700" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="701" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
@@ -41276,7 +42672,9 @@
       <c r="R701">
         <v>0</v>
       </c>
-      <c r="S701" s="1"/>
+      <c r="S701" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="702" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
@@ -41298,7 +42696,7 @@
         <v>33</v>
       </c>
       <c r="G702">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H702">
         <v>0</v>
@@ -41333,7 +42731,9 @@
       <c r="R702">
         <v>0</v>
       </c>
-      <c r="S702" s="1"/>
+      <c r="S702" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="703" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
@@ -41390,7 +42790,9 @@
       <c r="R703">
         <v>0</v>
       </c>
-      <c r="S703" s="1"/>
+      <c r="S703" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="704" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
@@ -41412,7 +42814,7 @@
         <v>168</v>
       </c>
       <c r="G704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H704">
         <v>0</v>
@@ -41447,7 +42849,9 @@
       <c r="R704">
         <v>1</v>
       </c>
-      <c r="S704" s="1"/>
+      <c r="S704" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="705" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A705" s="2">
@@ -41469,7 +42873,7 @@
         <v>83</v>
       </c>
       <c r="G705">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H705">
         <v>0</v>
@@ -41504,7 +42908,9 @@
       <c r="R705">
         <v>2</v>
       </c>
-      <c r="S705" s="1"/>
+      <c r="S705" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="706" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A706" s="2">
@@ -41526,7 +42932,7 @@
         <v>69</v>
       </c>
       <c r="G706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H706">
         <v>0</v>
@@ -41561,7 +42967,9 @@
       <c r="R706">
         <v>0</v>
       </c>
-      <c r="S706" s="1"/>
+      <c r="S706" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="707" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A707" s="2">
@@ -41618,7 +43026,9 @@
       <c r="R707">
         <v>0</v>
       </c>
-      <c r="S707" s="1"/>
+      <c r="S707" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="708" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A708" s="2">
@@ -41675,7 +43085,9 @@
       <c r="R708">
         <v>0</v>
       </c>
-      <c r="S708" s="1"/>
+      <c r="S708" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="709" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A709" s="2">
@@ -41697,7 +43109,7 @@
         <v>42</v>
       </c>
       <c r="G709">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H709">
         <v>0</v>
@@ -41732,7 +43144,9 @@
       <c r="R709">
         <v>0</v>
       </c>
-      <c r="S709" s="1"/>
+      <c r="S709" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="710" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A710" s="2">
@@ -41789,7 +43203,9 @@
       <c r="R710">
         <v>0</v>
       </c>
-      <c r="S710" s="1"/>
+      <c r="S710" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="711" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A711" s="2">
@@ -41811,7 +43227,7 @@
         <v>145</v>
       </c>
       <c r="G711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H711">
         <v>0</v>
@@ -41846,7 +43262,9 @@
       <c r="R711">
         <v>0</v>
       </c>
-      <c r="S711" s="1"/>
+      <c r="S711" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="712" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A712" s="2">
@@ -41903,7 +43321,9 @@
       <c r="R712">
         <v>0</v>
       </c>
-      <c r="S712" s="1"/>
+      <c r="S712" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="713" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A713" s="2">
@@ -41960,7 +43380,9 @@
       <c r="R713">
         <v>0</v>
       </c>
-      <c r="S713" s="1"/>
+      <c r="S713" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41968,28 +43390,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>